--- a/database/industries/ghand/ghesafha/product/monthly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD693E-21F6-4428-B95E-58912FF957F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -315,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,7 +509,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -520,7 +521,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -567,6 +568,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -602,6 +620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,17 +788,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -818,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -987,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1156,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1368,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1425,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1523,48 +1558,48 @@
       <c r="AH11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>58</v>
+      <c r="AI11" s="11">
+        <v>633</v>
       </c>
       <c r="AJ11" s="11">
-        <v>633</v>
+        <v>1274</v>
       </c>
       <c r="AK11" s="11">
-        <v>1274</v>
+        <v>857</v>
       </c>
       <c r="AL11" s="11">
-        <v>857</v>
+        <v>634</v>
       </c>
       <c r="AM11" s="11">
-        <v>634</v>
+        <v>162</v>
       </c>
       <c r="AN11" s="11">
-        <v>162</v>
+        <v>2464</v>
       </c>
       <c r="AO11" s="11">
-        <v>2464</v>
+        <v>2825</v>
       </c>
       <c r="AP11" s="11">
-        <v>2825</v>
+        <v>3629</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AR11" s="11">
         <v>2212</v>
       </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV11" s="11">
+      <c r="AU11" s="11">
         <v>1070</v>
       </c>
+      <c r="AV11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1652,98 +1687,98 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>1068</v>
       </c>
       <c r="Z12" s="13">
-        <v>1068</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="13">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="AB12" s="13">
+        <v>5957</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>7546</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>3513</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>2718</v>
+      </c>
+      <c r="AF12" s="13">
         <v>518</v>
       </c>
-      <c r="AC12" s="13">
-        <v>5957</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>7546</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>3513</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>2718</v>
-      </c>
       <c r="AG12" s="13">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="13">
         <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3950</v>
+        <v>4883</v>
       </c>
       <c r="AK12" s="13">
-        <v>4883</v>
-      </c>
-      <c r="AL12" s="13">
         <v>1667</v>
       </c>
-      <c r="AM12" s="13" t="s">
-        <v>58</v>
+      <c r="AL12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>866</v>
       </c>
       <c r="AN12" s="13">
-        <v>866</v>
+        <v>5934</v>
       </c>
       <c r="AO12" s="13">
-        <v>5934</v>
+        <v>4084</v>
       </c>
       <c r="AP12" s="13">
-        <v>4084</v>
+        <v>5426</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5426</v>
+        <v>3193</v>
       </c>
       <c r="AR12" s="13">
-        <v>3193</v>
+        <v>707</v>
       </c>
       <c r="AS12" s="13">
-        <v>707</v>
+        <v>1500</v>
       </c>
       <c r="AT12" s="13">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="13">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="AV12" s="13">
-        <v>1710</v>
+        <v>4738</v>
       </c>
       <c r="AW12" s="13">
-        <v>4738</v>
+        <v>3080</v>
       </c>
       <c r="AX12" s="13">
-        <v>3080</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>5940</v>
       </c>
       <c r="BA12" s="13">
-        <v>5940</v>
+        <v>6358</v>
       </c>
       <c r="BB12" s="13">
-        <v>6358</v>
+        <v>6107</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1811,98 +1846,98 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>922</v>
       </c>
       <c r="Z13" s="11">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="AB13" s="11">
-        <v>332</v>
+        <v>1939</v>
       </c>
       <c r="AC13" s="11">
-        <v>1939</v>
+        <v>2561</v>
       </c>
       <c r="AD13" s="11">
-        <v>2561</v>
+        <v>1433</v>
       </c>
       <c r="AE13" s="11">
-        <v>1433</v>
+        <v>1727</v>
       </c>
       <c r="AF13" s="11">
-        <v>1727</v>
+        <v>563</v>
       </c>
       <c r="AG13" s="11">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
         <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="AJ13" s="11">
-        <v>591</v>
+        <v>3202</v>
       </c>
       <c r="AK13" s="11">
-        <v>3202</v>
+        <v>2577</v>
       </c>
       <c r="AL13" s="11">
-        <v>2577</v>
+        <v>1502</v>
       </c>
       <c r="AM13" s="11">
-        <v>1502</v>
+        <v>227</v>
       </c>
       <c r="AN13" s="11">
-        <v>227</v>
+        <v>1960</v>
       </c>
       <c r="AO13" s="11">
-        <v>1960</v>
+        <v>2030</v>
       </c>
       <c r="AP13" s="11">
-        <v>2030</v>
+        <v>1805</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1805</v>
+        <v>2145</v>
       </c>
       <c r="AR13" s="11">
-        <v>2145</v>
+        <v>1348</v>
       </c>
       <c r="AS13" s="11">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
       </c>
       <c r="AU13" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AV13" s="11">
-        <v>300</v>
+        <v>2035</v>
       </c>
       <c r="AW13" s="11">
-        <v>2035</v>
+        <v>3165</v>
       </c>
       <c r="AX13" s="11">
-        <v>3165</v>
+        <v>1648</v>
       </c>
       <c r="AY13" s="11">
-        <v>1648</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="BA13" s="11">
-        <v>1600</v>
+        <v>2060</v>
       </c>
       <c r="BB13" s="11">
-        <v>2060</v>
+        <v>2270</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1970,8 +2005,8 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>0</v>
       </c>
       <c r="Z14" s="13">
         <v>0</v>
@@ -2000,8 +2035,8 @@
       <c r="AH14" s="13">
         <v>0</v>
       </c>
-      <c r="AI14" s="13">
-        <v>0</v>
+      <c r="AI14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ14" s="13" t="s">
         <v>58</v>
@@ -2015,11 +2050,11 @@
       <c r="AM14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>0</v>
+      <c r="AN14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP14" s="13" t="s">
         <v>58</v>
@@ -2027,8 +2062,8 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>0</v>
       </c>
       <c r="AS14" s="13">
         <v>0</v>
@@ -2061,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2129,98 +2164,98 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>2769</v>
       </c>
       <c r="Z15" s="11">
-        <v>2769</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="11">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="AB15" s="11">
-        <v>807</v>
+        <v>11956</v>
       </c>
       <c r="AC15" s="11">
-        <v>11956</v>
+        <v>13972</v>
       </c>
       <c r="AD15" s="11">
-        <v>13972</v>
+        <v>10135</v>
       </c>
       <c r="AE15" s="11">
-        <v>10135</v>
+        <v>6360</v>
       </c>
       <c r="AF15" s="11">
-        <v>6360</v>
+        <v>732</v>
       </c>
       <c r="AG15" s="11">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="11">
         <v>0</v>
       </c>
       <c r="AI15" s="11">
-        <v>0</v>
+        <v>7185</v>
       </c>
       <c r="AJ15" s="11">
-        <v>7185</v>
+        <v>8990</v>
       </c>
       <c r="AK15" s="11">
-        <v>8990</v>
-      </c>
-      <c r="AL15" s="11">
         <v>3513</v>
       </c>
-      <c r="AM15" s="11" t="s">
-        <v>58</v>
+      <c r="AL15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>1565</v>
       </c>
       <c r="AN15" s="11">
-        <v>1565</v>
+        <v>10585</v>
       </c>
       <c r="AO15" s="11">
-        <v>10585</v>
+        <v>14551</v>
       </c>
       <c r="AP15" s="11">
-        <v>14551</v>
+        <v>12171</v>
       </c>
       <c r="AQ15" s="11">
-        <v>12171</v>
+        <v>7298</v>
       </c>
       <c r="AR15" s="11">
-        <v>7298</v>
+        <v>479</v>
       </c>
       <c r="AS15" s="11">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="11">
         <v>0</v>
       </c>
       <c r="AU15" s="11">
-        <v>0</v>
+        <v>2852</v>
       </c>
       <c r="AV15" s="11">
-        <v>2852</v>
+        <v>8504</v>
       </c>
       <c r="AW15" s="11">
-        <v>8504</v>
+        <v>4447</v>
       </c>
       <c r="AX15" s="11">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="11">
         <v>0</v>
       </c>
       <c r="AZ15" s="11">
-        <v>0</v>
+        <v>11159</v>
       </c>
       <c r="BA15" s="11">
-        <v>11159</v>
+        <v>12852</v>
       </c>
       <c r="BB15" s="11">
-        <v>12852</v>
+        <v>12892</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2303,8 +2338,8 @@
       <c r="AC16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD16" s="13" t="s">
-        <v>58</v>
+      <c r="AD16" s="13">
+        <v>0</v>
       </c>
       <c r="AE16" s="13">
         <v>0</v>
@@ -2318,8 +2353,8 @@
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>58</v>
@@ -2333,11 +2368,11 @@
       <c r="AM16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>0</v>
+      <c r="AN16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP16" s="13" t="s">
         <v>58</v>
@@ -2345,8 +2380,8 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>0</v>
       </c>
       <c r="AS16" s="13">
         <v>0</v>
@@ -2379,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2492,11 +2527,11 @@
       <c r="AM17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>0</v>
+      <c r="AN17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP17" s="11" t="s">
         <v>58</v>
@@ -2504,14 +2539,14 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
       </c>
-      <c r="AT17" s="11">
-        <v>0</v>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2538,7 +2573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2651,11 +2686,11 @@
       <c r="AM18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>0</v>
+      <c r="AN18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP18" s="13" t="s">
         <v>58</v>
@@ -2663,14 +2698,14 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2697,7 +2732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2810,11 +2845,11 @@
       <c r="AM19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>0</v>
+      <c r="AN19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP19" s="11" t="s">
         <v>58</v>
@@ -2822,14 +2857,14 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
         <v>0</v>
       </c>
-      <c r="AT19" s="11">
-        <v>0</v>
+      <c r="AT19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>58</v>
@@ -2856,7 +2891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2924,8 +2959,8 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2954,8 +2989,8 @@
       <c r="AH20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>58</v>
@@ -2969,11 +3004,11 @@
       <c r="AM20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>0</v>
+      <c r="AN20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP20" s="13" t="s">
         <v>58</v>
@@ -2981,8 +3016,8 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>0</v>
       </c>
       <c r="AS20" s="13">
         <v>0</v>
@@ -3015,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3107,11 +3142,11 @@
       <c r="AF21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>0</v>
+      <c r="AG21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>58</v>
@@ -3174,7 +3209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3269,11 +3304,11 @@
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI22" s="13">
-        <v>0</v>
+      <c r="AH22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="13" t="s">
         <v>58</v>
@@ -3287,11 +3322,11 @@
       <c r="AM22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" s="13">
-        <v>0</v>
+      <c r="AN22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP22" s="13" t="s">
         <v>58</v>
@@ -3299,8 +3334,8 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
+      <c r="AR22" s="13">
+        <v>0</v>
       </c>
       <c r="AS22" s="13">
         <v>0</v>
@@ -3333,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>70</v>
       </c>
@@ -3400,97 +3435,97 @@
         <v>0</v>
       </c>
       <c r="Y23" s="15">
-        <v>0</v>
+        <v>4759</v>
       </c>
       <c r="Z23" s="15">
-        <v>4759</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
-        <v>0</v>
+        <v>1657</v>
       </c>
       <c r="AB23" s="15">
-        <v>1657</v>
+        <v>19852</v>
       </c>
       <c r="AC23" s="15">
-        <v>19852</v>
+        <v>24079</v>
       </c>
       <c r="AD23" s="15">
-        <v>24079</v>
+        <v>15081</v>
       </c>
       <c r="AE23" s="15">
-        <v>15081</v>
+        <v>10805</v>
       </c>
       <c r="AF23" s="15">
-        <v>10805</v>
+        <v>1813</v>
       </c>
       <c r="AG23" s="15">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="15">
         <v>0</v>
       </c>
       <c r="AI23" s="15">
-        <v>0</v>
+        <v>12359</v>
       </c>
       <c r="AJ23" s="15">
-        <v>12359</v>
+        <v>18349</v>
       </c>
       <c r="AK23" s="15">
-        <v>18349</v>
+        <v>8614</v>
       </c>
       <c r="AL23" s="15">
-        <v>8614</v>
+        <v>2136</v>
       </c>
       <c r="AM23" s="15">
-        <v>2136</v>
+        <v>2820</v>
       </c>
       <c r="AN23" s="15">
-        <v>2820</v>
+        <v>20943</v>
       </c>
       <c r="AO23" s="15">
-        <v>20943</v>
+        <v>23490</v>
       </c>
       <c r="AP23" s="15">
-        <v>23490</v>
+        <v>23031</v>
       </c>
       <c r="AQ23" s="15">
-        <v>23031</v>
+        <v>14848</v>
       </c>
       <c r="AR23" s="15">
-        <v>14848</v>
+        <v>2534</v>
       </c>
       <c r="AS23" s="15">
-        <v>2534</v>
+        <v>1500</v>
       </c>
       <c r="AT23" s="15">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="15">
-        <v>0</v>
+        <v>5932</v>
       </c>
       <c r="AV23" s="15">
-        <v>5932</v>
+        <v>15277</v>
       </c>
       <c r="AW23" s="15">
-        <v>15277</v>
+        <v>10692</v>
       </c>
       <c r="AX23" s="15">
-        <v>10692</v>
+        <v>1650</v>
       </c>
       <c r="AY23" s="15">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="15">
-        <v>0</v>
+        <v>18699</v>
       </c>
       <c r="BA23" s="15">
-        <v>18699</v>
+        <v>21270</v>
       </c>
       <c r="BB23" s="15">
-        <v>21270</v>
+        <v>21269</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>71</v>
       </c>
@@ -3547,7 +3582,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3642,11 +3677,11 @@
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ25" s="11" t="s">
         <v>58</v>
@@ -3706,7 +3741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
@@ -3863,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>74</v>
       </c>
@@ -3920,7 +3955,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>75</v>
       </c>
@@ -3988,98 +4023,98 @@
       <c r="X28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>58</v>
+      <c r="Y28" s="11">
+        <v>2076</v>
       </c>
       <c r="Z28" s="11">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="11">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="AB28" s="11">
-        <v>7010</v>
+        <v>6676</v>
       </c>
       <c r="AC28" s="11">
-        <v>6676</v>
+        <v>1878</v>
       </c>
       <c r="AD28" s="11">
-        <v>1878</v>
+        <v>8293</v>
       </c>
       <c r="AE28" s="11">
-        <v>8293</v>
+        <v>13186</v>
       </c>
       <c r="AF28" s="11">
-        <v>13186</v>
+        <v>8970</v>
       </c>
       <c r="AG28" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="11">
         <v>0</v>
       </c>
       <c r="AI28" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AJ28" s="11">
-        <v>10947</v>
+        <v>7618</v>
       </c>
       <c r="AK28" s="11">
-        <v>7618</v>
+        <v>13197</v>
       </c>
       <c r="AL28" s="11">
-        <v>13197</v>
+        <v>17235</v>
       </c>
       <c r="AM28" s="11">
-        <v>17235</v>
+        <v>1690</v>
       </c>
       <c r="AN28" s="11">
-        <v>1690</v>
+        <v>6307</v>
       </c>
       <c r="AO28" s="11">
-        <v>6307</v>
+        <v>1678</v>
       </c>
       <c r="AP28" s="11">
-        <v>1678</v>
+        <v>4422</v>
       </c>
       <c r="AQ28" s="11">
-        <v>4422</v>
+        <v>10538</v>
       </c>
       <c r="AR28" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AS28" s="11">
         <v>10082</v>
       </c>
+      <c r="AS28" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU28" s="11" t="s">
-        <v>58</v>
+      <c r="AU28" s="11">
+        <v>230</v>
       </c>
       <c r="AV28" s="11">
-        <v>230</v>
+        <v>5245</v>
       </c>
       <c r="AW28" s="11">
-        <v>5245</v>
+        <v>11469</v>
       </c>
       <c r="AX28" s="11">
-        <v>11469</v>
-      </c>
-      <c r="AY28" s="11">
         <v>18259</v>
       </c>
-      <c r="AZ28" s="11" t="s">
-        <v>58</v>
+      <c r="AY28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ28" s="11">
+        <v>1255</v>
       </c>
       <c r="BA28" s="11">
-        <v>1255</v>
+        <v>1342</v>
       </c>
       <c r="BB28" s="11">
-        <v>1342</v>
+        <v>2646</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>76</v>
       </c>
@@ -4145,8 +4180,8 @@
       <c r="X29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>58</v>
+      <c r="Y29" s="17">
+        <v>0</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
@@ -4236,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>77</v>
       </c>
@@ -4303,97 +4338,97 @@
         <v>0</v>
       </c>
       <c r="Y30" s="15">
-        <v>0</v>
+        <v>6835</v>
       </c>
       <c r="Z30" s="15">
-        <v>6835</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="15">
-        <v>0</v>
+        <v>8667</v>
       </c>
       <c r="AB30" s="15">
-        <v>8667</v>
+        <v>26528</v>
       </c>
       <c r="AC30" s="15">
-        <v>26528</v>
+        <v>25957</v>
       </c>
       <c r="AD30" s="15">
-        <v>25957</v>
+        <v>23374</v>
       </c>
       <c r="AE30" s="15">
-        <v>23374</v>
+        <v>23991</v>
       </c>
       <c r="AF30" s="15">
-        <v>23991</v>
+        <v>10783</v>
       </c>
       <c r="AG30" s="15">
-        <v>10783</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="15">
         <v>0</v>
       </c>
       <c r="AI30" s="15">
-        <v>0</v>
+        <v>23306</v>
       </c>
       <c r="AJ30" s="15">
-        <v>23306</v>
+        <v>25967</v>
       </c>
       <c r="AK30" s="15">
-        <v>25967</v>
+        <v>21811</v>
       </c>
       <c r="AL30" s="15">
-        <v>21811</v>
+        <v>19371</v>
       </c>
       <c r="AM30" s="15">
-        <v>19371</v>
+        <v>4510</v>
       </c>
       <c r="AN30" s="15">
-        <v>4510</v>
+        <v>27250</v>
       </c>
       <c r="AO30" s="15">
-        <v>27250</v>
+        <v>25168</v>
       </c>
       <c r="AP30" s="15">
-        <v>25168</v>
+        <v>27453</v>
       </c>
       <c r="AQ30" s="15">
-        <v>27453</v>
+        <v>25386</v>
       </c>
       <c r="AR30" s="15">
-        <v>25386</v>
+        <v>12616</v>
       </c>
       <c r="AS30" s="15">
-        <v>12616</v>
+        <v>1500</v>
       </c>
       <c r="AT30" s="15">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="15">
-        <v>0</v>
+        <v>6162</v>
       </c>
       <c r="AV30" s="15">
-        <v>6162</v>
+        <v>20522</v>
       </c>
       <c r="AW30" s="15">
-        <v>20522</v>
+        <v>22161</v>
       </c>
       <c r="AX30" s="15">
-        <v>22161</v>
+        <v>19909</v>
       </c>
       <c r="AY30" s="15">
-        <v>19909</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="15">
-        <v>0</v>
+        <v>19954</v>
       </c>
       <c r="BA30" s="15">
-        <v>19954</v>
+        <v>22612</v>
       </c>
       <c r="BB30" s="15">
-        <v>22612</v>
+        <v>23915</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4448,7 +4483,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4503,7 +4538,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4558,7 +4593,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -4715,7 +4750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4770,7 +4805,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>79</v>
       </c>
@@ -4827,7 +4862,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4925,48 +4960,48 @@
       <c r="AH37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>58</v>
+      <c r="AI37" s="11">
+        <v>633</v>
       </c>
       <c r="AJ37" s="11">
-        <v>633</v>
+        <v>1274</v>
       </c>
       <c r="AK37" s="11">
-        <v>1274</v>
+        <v>857</v>
       </c>
       <c r="AL37" s="11">
-        <v>857</v>
+        <v>634</v>
       </c>
       <c r="AM37" s="11">
-        <v>634</v>
+        <v>162</v>
       </c>
       <c r="AN37" s="11">
-        <v>162</v>
+        <v>2464</v>
       </c>
       <c r="AO37" s="11">
-        <v>2464</v>
+        <v>2825</v>
       </c>
       <c r="AP37" s="11">
-        <v>2825</v>
+        <v>3629</v>
       </c>
       <c r="AQ37" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AR37" s="11">
         <v>2212</v>
       </c>
+      <c r="AR37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS37" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV37" s="11">
+      <c r="AU37" s="11">
         <v>1070</v>
       </c>
+      <c r="AV37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW37" s="11" t="s">
         <v>58</v>
       </c>
@@ -4986,7 +5021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5054,98 +5089,98 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>1782</v>
       </c>
       <c r="Z38" s="13">
-        <v>1782</v>
+        <v>1862</v>
       </c>
       <c r="AA38" s="13">
-        <v>1862</v>
+        <v>1802</v>
       </c>
       <c r="AB38" s="13">
-        <v>1802</v>
+        <v>2071</v>
       </c>
       <c r="AC38" s="13">
-        <v>2071</v>
+        <v>6210</v>
       </c>
       <c r="AD38" s="13">
-        <v>6210</v>
+        <v>4782</v>
       </c>
       <c r="AE38" s="13">
-        <v>4782</v>
+        <v>1067</v>
       </c>
       <c r="AF38" s="13">
-        <v>1067</v>
+        <v>63</v>
       </c>
       <c r="AG38" s="13">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="AH38" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI38" s="13">
-        <v>2</v>
+        <v>1767</v>
       </c>
       <c r="AJ38" s="13">
-        <v>1767</v>
+        <v>2223</v>
       </c>
       <c r="AK38" s="13">
-        <v>2223</v>
+        <v>3230</v>
       </c>
       <c r="AL38" s="13">
-        <v>3230</v>
+        <v>547</v>
       </c>
       <c r="AM38" s="13">
-        <v>547</v>
+        <v>161</v>
       </c>
       <c r="AN38" s="13">
-        <v>161</v>
+        <v>1238</v>
       </c>
       <c r="AO38" s="13">
-        <v>1238</v>
+        <v>3671</v>
       </c>
       <c r="AP38" s="13">
-        <v>3671</v>
+        <v>4539</v>
       </c>
       <c r="AQ38" s="13">
-        <v>4539</v>
+        <v>3719</v>
       </c>
       <c r="AR38" s="13">
-        <v>3719</v>
+        <v>2887</v>
       </c>
       <c r="AS38" s="13">
-        <v>2887</v>
+        <v>261</v>
       </c>
       <c r="AT38" s="13">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="AU38" s="13">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="AV38" s="13">
-        <v>195</v>
+        <v>3058</v>
       </c>
       <c r="AW38" s="13">
-        <v>3058</v>
+        <v>2259</v>
       </c>
       <c r="AX38" s="13">
-        <v>2259</v>
+        <v>333</v>
       </c>
       <c r="AY38" s="13">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="13">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="BA38" s="13">
-        <v>1670</v>
+        <v>5536</v>
       </c>
       <c r="BB38" s="13">
-        <v>5536</v>
+        <v>8259</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5213,98 +5248,98 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>867</v>
       </c>
       <c r="Z39" s="11">
-        <v>867</v>
+        <v>1040</v>
       </c>
       <c r="AA39" s="11">
-        <v>1040</v>
+        <v>220</v>
       </c>
       <c r="AB39" s="11">
-        <v>220</v>
+        <v>686</v>
       </c>
       <c r="AC39" s="11">
-        <v>686</v>
+        <v>1967</v>
       </c>
       <c r="AD39" s="11">
-        <v>1967</v>
+        <v>1948</v>
       </c>
       <c r="AE39" s="11">
-        <v>1948</v>
+        <v>1984</v>
       </c>
       <c r="AF39" s="11">
-        <v>1984</v>
+        <v>975</v>
       </c>
       <c r="AG39" s="11">
-        <v>975</v>
+        <v>656</v>
       </c>
       <c r="AH39" s="11">
-        <v>656</v>
+        <v>42</v>
       </c>
       <c r="AI39" s="11">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AJ39" s="11">
-        <v>346</v>
+        <v>1299</v>
       </c>
       <c r="AK39" s="11">
-        <v>1299</v>
+        <v>2532</v>
       </c>
       <c r="AL39" s="11">
-        <v>2532</v>
+        <v>2267</v>
       </c>
       <c r="AM39" s="11">
-        <v>2267</v>
+        <v>1126</v>
       </c>
       <c r="AN39" s="11">
-        <v>1126</v>
+        <v>885</v>
       </c>
       <c r="AO39" s="11">
-        <v>885</v>
+        <v>3428</v>
       </c>
       <c r="AP39" s="11">
-        <v>3428</v>
+        <v>1607</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1607</v>
+        <v>1700</v>
       </c>
       <c r="AR39" s="11">
-        <v>1700</v>
+        <v>831</v>
       </c>
       <c r="AS39" s="11">
-        <v>831</v>
+        <v>1011</v>
       </c>
       <c r="AT39" s="11">
-        <v>1011</v>
+        <v>323</v>
       </c>
       <c r="AU39" s="11">
-        <v>323</v>
+        <v>98</v>
       </c>
       <c r="AV39" s="11">
-        <v>98</v>
+        <v>1507</v>
       </c>
       <c r="AW39" s="11">
-        <v>1507</v>
+        <v>1876</v>
       </c>
       <c r="AX39" s="11">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="AY39" s="11">
-        <v>1885</v>
+        <v>1326</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1326</v>
+        <v>1706</v>
       </c>
       <c r="BA39" s="11">
-        <v>1706</v>
+        <v>1845</v>
       </c>
       <c r="BB39" s="11">
-        <v>1845</v>
+        <v>2418</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5372,8 +5407,8 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
       </c>
       <c r="Z40" s="13">
         <v>0</v>
@@ -5394,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="AF40" s="13">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="AG40" s="13">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="13">
         <v>0</v>
       </c>
-      <c r="AI40" s="13">
-        <v>0</v>
+      <c r="AI40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ40" s="13" t="s">
         <v>58</v>
@@ -5417,11 +5452,11 @@
       <c r="AM40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>0</v>
+      <c r="AN40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP40" s="13" t="s">
         <v>58</v>
@@ -5429,20 +5464,20 @@
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13">
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AT40" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV40" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="13">
         <v>0</v>
@@ -5463,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
@@ -5531,98 +5566,98 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>9458</v>
       </c>
       <c r="Z41" s="11">
-        <v>9458</v>
+        <v>1290</v>
       </c>
       <c r="AA41" s="11">
-        <v>1290</v>
+        <v>214</v>
       </c>
       <c r="AB41" s="11">
-        <v>214</v>
+        <v>9551</v>
       </c>
       <c r="AC41" s="11">
-        <v>9551</v>
+        <v>8364</v>
       </c>
       <c r="AD41" s="11">
-        <v>8364</v>
+        <v>8495</v>
       </c>
       <c r="AE41" s="11">
-        <v>8495</v>
+        <v>10206</v>
       </c>
       <c r="AF41" s="11">
-        <v>10206</v>
+        <v>4207</v>
       </c>
       <c r="AG41" s="11">
-        <v>4207</v>
+        <v>225</v>
       </c>
       <c r="AH41" s="11">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="AI41" s="11">
-        <v>34</v>
+        <v>3532</v>
       </c>
       <c r="AJ41" s="11">
-        <v>3532</v>
+        <v>2265</v>
       </c>
       <c r="AK41" s="11">
-        <v>2265</v>
+        <v>7358</v>
       </c>
       <c r="AL41" s="11">
-        <v>7358</v>
+        <v>2371</v>
       </c>
       <c r="AM41" s="11">
-        <v>2371</v>
+        <v>7817</v>
       </c>
       <c r="AN41" s="11">
-        <v>7817</v>
+        <v>9186</v>
       </c>
       <c r="AO41" s="11">
-        <v>9186</v>
+        <v>9120</v>
       </c>
       <c r="AP41" s="11">
-        <v>9120</v>
+        <v>11262</v>
       </c>
       <c r="AQ41" s="11">
-        <v>11262</v>
+        <v>14523</v>
       </c>
       <c r="AR41" s="11">
-        <v>14523</v>
+        <v>965</v>
       </c>
       <c r="AS41" s="11">
-        <v>965</v>
+        <v>252</v>
       </c>
       <c r="AT41" s="11">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AV41" s="11">
-        <v>46</v>
+        <v>5109</v>
       </c>
       <c r="AW41" s="11">
-        <v>5109</v>
+        <v>3184</v>
       </c>
       <c r="AX41" s="11">
-        <v>3184</v>
+        <v>3025</v>
       </c>
       <c r="AY41" s="11">
-        <v>3025</v>
+        <v>1983</v>
       </c>
       <c r="AZ41" s="11">
-        <v>1983</v>
+        <v>10560</v>
       </c>
       <c r="BA41" s="11">
-        <v>10560</v>
+        <v>7519</v>
       </c>
       <c r="BB41" s="11">
-        <v>7519</v>
+        <v>3538</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5705,11 +5740,11 @@
       <c r="AC42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="13" t="s">
-        <v>58</v>
+      <c r="AD42" s="13">
+        <v>1</v>
       </c>
       <c r="AE42" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
         <v>0</v>
@@ -5720,8 +5755,8 @@
       <c r="AH42" s="13">
         <v>0</v>
       </c>
-      <c r="AI42" s="13">
-        <v>0</v>
+      <c r="AI42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ42" s="13" t="s">
         <v>58</v>
@@ -5735,11 +5770,11 @@
       <c r="AM42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO42" s="13">
-        <v>0</v>
+      <c r="AN42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP42" s="13" t="s">
         <v>58</v>
@@ -5747,8 +5782,8 @@
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
+      <c r="AR42" s="13">
+        <v>0</v>
       </c>
       <c r="AS42" s="13">
         <v>0</v>
@@ -5781,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5894,11 +5929,11 @@
       <c r="AM43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>0</v>
+      <c r="AN43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP43" s="11" t="s">
         <v>58</v>
@@ -5906,14 +5941,14 @@
       <c r="AQ43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR43" s="11" t="s">
-        <v>58</v>
+      <c r="AR43" s="11">
+        <v>0</v>
       </c>
       <c r="AS43" s="11">
         <v>0</v>
       </c>
-      <c r="AT43" s="11">
-        <v>0</v>
+      <c r="AT43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU43" s="11" t="s">
         <v>58</v>
@@ -5940,7 +5975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
@@ -6053,11 +6088,11 @@
       <c r="AM44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO44" s="13">
-        <v>0</v>
+      <c r="AN44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP44" s="13" t="s">
         <v>58</v>
@@ -6065,14 +6100,14 @@
       <c r="AQ44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
+      <c r="AR44" s="13">
+        <v>0</v>
       </c>
       <c r="AS44" s="13">
         <v>0</v>
       </c>
-      <c r="AT44" s="13">
-        <v>0</v>
+      <c r="AT44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU44" s="13" t="s">
         <v>58</v>
@@ -6099,7 +6134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
@@ -6212,11 +6247,11 @@
       <c r="AM45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO45" s="11">
-        <v>0</v>
+      <c r="AN45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP45" s="11" t="s">
         <v>58</v>
@@ -6224,14 +6259,14 @@
       <c r="AQ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>58</v>
+      <c r="AR45" s="11">
+        <v>0</v>
       </c>
       <c r="AS45" s="11">
         <v>0</v>
       </c>
-      <c r="AT45" s="11">
-        <v>0</v>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU45" s="11" t="s">
         <v>58</v>
@@ -6258,7 +6293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>67</v>
       </c>
@@ -6326,89 +6361,89 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>39</v>
       </c>
       <c r="Z46" s="13">
-        <v>39</v>
+        <v>1236</v>
       </c>
       <c r="AA46" s="13">
-        <v>1236</v>
+        <v>696</v>
       </c>
       <c r="AB46" s="13">
-        <v>696</v>
+        <v>545</v>
       </c>
       <c r="AC46" s="13">
-        <v>545</v>
+        <v>166</v>
       </c>
       <c r="AD46" s="13">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="AE46" s="13">
-        <v>190</v>
+        <v>1572</v>
       </c>
       <c r="AF46" s="13">
-        <v>1572</v>
+        <v>2747</v>
       </c>
       <c r="AG46" s="13">
-        <v>2747</v>
+        <v>1421</v>
       </c>
       <c r="AH46" s="13">
-        <v>1421</v>
+        <v>215</v>
       </c>
       <c r="AI46" s="13">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="AJ46" s="13">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="AK46" s="13">
-        <v>297</v>
+        <v>1074</v>
       </c>
       <c r="AL46" s="13">
-        <v>1074</v>
+        <v>883</v>
       </c>
       <c r="AM46" s="13">
-        <v>883</v>
+        <v>1019</v>
       </c>
       <c r="AN46" s="13">
-        <v>1019</v>
-      </c>
-      <c r="AO46" s="13">
         <v>1</v>
       </c>
-      <c r="AP46" s="13" t="s">
-        <v>58</v>
+      <c r="AO46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>85</v>
       </c>
       <c r="AQ46" s="13">
-        <v>85</v>
+        <v>875</v>
       </c>
       <c r="AR46" s="13">
-        <v>875</v>
+        <v>1821</v>
       </c>
       <c r="AS46" s="13">
-        <v>1821</v>
+        <v>4289</v>
       </c>
       <c r="AT46" s="13">
-        <v>4289</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV46" s="13">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="AW46" s="13">
-        <v>120</v>
+        <v>621</v>
       </c>
       <c r="AX46" s="13">
-        <v>621</v>
+        <v>810</v>
       </c>
       <c r="AY46" s="13">
-        <v>810</v>
+        <v>1294</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="13">
         <v>0</v>
@@ -6417,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -6509,11 +6544,11 @@
       <c r="AF47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>0</v>
+      <c r="AG47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>58</v>
@@ -6576,7 +6611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
@@ -6671,38 +6706,38 @@
       <c r="AG48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>58</v>
+      <c r="AH48" s="13">
+        <v>3</v>
       </c>
       <c r="AI48" s="13">
+        <v>16</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>326</v>
+      </c>
+      <c r="AL48" s="13">
         <v>3</v>
       </c>
-      <c r="AJ48" s="13">
-        <v>16</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>4</v>
-      </c>
-      <c r="AL48" s="13">
-        <v>326</v>
-      </c>
-      <c r="AM48" s="13">
+      <c r="AM48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN48" s="13">
         <v>3</v>
       </c>
-      <c r="AN48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO48" s="13">
-        <v>3</v>
-      </c>
-      <c r="AP48" s="13" t="s">
-        <v>58</v>
+      <c r="AO48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP48" s="13">
+        <v>613</v>
       </c>
       <c r="AQ48" s="13">
-        <v>613</v>
+        <v>120</v>
       </c>
       <c r="AR48" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="13">
         <v>0</v>
@@ -6720,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="AY48" s="13">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="13">
         <v>0</v>
@@ -6732,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="BB48" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>80</v>
       </c>
@@ -6802,97 +6837,97 @@
         <v>0</v>
       </c>
       <c r="Y49" s="15">
-        <v>0</v>
+        <v>12146</v>
       </c>
       <c r="Z49" s="15">
-        <v>12146</v>
+        <v>5428</v>
       </c>
       <c r="AA49" s="15">
-        <v>5428</v>
+        <v>2932</v>
       </c>
       <c r="AB49" s="15">
-        <v>2932</v>
+        <v>12853</v>
       </c>
       <c r="AC49" s="15">
-        <v>12853</v>
+        <v>16707</v>
       </c>
       <c r="AD49" s="15">
-        <v>16707</v>
+        <v>15416</v>
       </c>
       <c r="AE49" s="15">
-        <v>15416</v>
+        <v>14829</v>
       </c>
       <c r="AF49" s="15">
-        <v>14829</v>
+        <v>8832</v>
       </c>
       <c r="AG49" s="15">
-        <v>8832</v>
+        <v>2312</v>
       </c>
       <c r="AH49" s="15">
-        <v>2312</v>
+        <v>296</v>
       </c>
       <c r="AI49" s="15">
-        <v>296</v>
+        <v>6458</v>
       </c>
       <c r="AJ49" s="15">
-        <v>6458</v>
+        <v>7362</v>
       </c>
       <c r="AK49" s="15">
-        <v>7362</v>
+        <v>15377</v>
       </c>
       <c r="AL49" s="15">
-        <v>15377</v>
+        <v>6705</v>
       </c>
       <c r="AM49" s="15">
-        <v>6705</v>
+        <v>10285</v>
       </c>
       <c r="AN49" s="15">
-        <v>10285</v>
+        <v>13777</v>
       </c>
       <c r="AO49" s="15">
-        <v>13777</v>
+        <v>19044</v>
       </c>
       <c r="AP49" s="15">
-        <v>19044</v>
+        <v>21735</v>
       </c>
       <c r="AQ49" s="15">
-        <v>21735</v>
+        <v>23149</v>
       </c>
       <c r="AR49" s="15">
-        <v>23149</v>
+        <v>6504</v>
       </c>
       <c r="AS49" s="15">
-        <v>6504</v>
+        <v>5840</v>
       </c>
       <c r="AT49" s="15">
-        <v>5840</v>
+        <v>326</v>
       </c>
       <c r="AU49" s="15">
-        <v>326</v>
+        <v>1411</v>
       </c>
       <c r="AV49" s="15">
-        <v>1411</v>
+        <v>9794</v>
       </c>
       <c r="AW49" s="15">
-        <v>9794</v>
+        <v>7940</v>
       </c>
       <c r="AX49" s="15">
-        <v>7940</v>
+        <v>6337</v>
       </c>
       <c r="AY49" s="15">
-        <v>6337</v>
+        <v>4603</v>
       </c>
       <c r="AZ49" s="15">
-        <v>4603</v>
+        <v>13936</v>
       </c>
       <c r="BA49" s="15">
-        <v>13936</v>
+        <v>14900</v>
       </c>
       <c r="BB49" s="15">
-        <v>14900</v>
+        <v>14315</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>81</v>
       </c>
@@ -6949,7 +6984,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>72</v>
       </c>
@@ -7044,11 +7079,11 @@
       <c r="AG51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI51" s="11">
-        <v>0</v>
+      <c r="AH51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ51" s="11" t="s">
         <v>58</v>
@@ -7108,7 +7143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>82</v>
       </c>
@@ -7265,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>74</v>
       </c>
@@ -7322,7 +7357,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>75</v>
       </c>
@@ -7390,98 +7425,98 @@
       <c r="X54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>58</v>
+      <c r="Y54" s="11">
+        <v>2076</v>
       </c>
       <c r="Z54" s="11">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="11">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="AB54" s="11">
-        <v>7010</v>
+        <v>6676</v>
       </c>
       <c r="AC54" s="11">
-        <v>6676</v>
+        <v>1878</v>
       </c>
       <c r="AD54" s="11">
-        <v>1878</v>
+        <v>8293</v>
       </c>
       <c r="AE54" s="11">
-        <v>8293</v>
+        <v>13186</v>
       </c>
       <c r="AF54" s="11">
-        <v>13186</v>
+        <v>8970</v>
       </c>
       <c r="AG54" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="11">
         <v>0</v>
       </c>
       <c r="AI54" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AJ54" s="11">
-        <v>10947</v>
+        <v>7618</v>
       </c>
       <c r="AK54" s="11">
-        <v>7618</v>
+        <v>13197</v>
       </c>
       <c r="AL54" s="11">
-        <v>13197</v>
+        <v>17235</v>
       </c>
       <c r="AM54" s="11">
-        <v>17235</v>
+        <v>1690</v>
       </c>
       <c r="AN54" s="11">
-        <v>1690</v>
+        <v>6307</v>
       </c>
       <c r="AO54" s="11">
-        <v>6307</v>
+        <v>1678</v>
       </c>
       <c r="AP54" s="11">
-        <v>1678</v>
+        <v>4422</v>
       </c>
       <c r="AQ54" s="11">
-        <v>4422</v>
+        <v>10538</v>
       </c>
       <c r="AR54" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AS54" s="11">
         <v>10082</v>
       </c>
+      <c r="AS54" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU54" s="11" t="s">
-        <v>58</v>
+      <c r="AU54" s="11">
+        <v>230</v>
       </c>
       <c r="AV54" s="11">
-        <v>230</v>
+        <v>5245</v>
       </c>
       <c r="AW54" s="11">
-        <v>5245</v>
+        <v>11469</v>
       </c>
       <c r="AX54" s="11">
-        <v>11469</v>
-      </c>
-      <c r="AY54" s="11">
         <v>18259</v>
       </c>
-      <c r="AZ54" s="11" t="s">
-        <v>58</v>
+      <c r="AY54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ54" s="11">
+        <v>1255</v>
       </c>
       <c r="BA54" s="11">
-        <v>1255</v>
+        <v>1342</v>
       </c>
       <c r="BB54" s="11">
-        <v>1342</v>
+        <v>2646</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -7547,98 +7582,98 @@
       <c r="X55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="17" t="s">
-        <v>58</v>
+      <c r="Y55" s="17">
+        <v>2076</v>
       </c>
       <c r="Z55" s="17">
-        <v>2076</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="17">
-        <v>0</v>
+        <v>7010</v>
       </c>
       <c r="AB55" s="17">
-        <v>7010</v>
+        <v>6676</v>
       </c>
       <c r="AC55" s="17">
-        <v>6676</v>
+        <v>1878</v>
       </c>
       <c r="AD55" s="17">
-        <v>1878</v>
+        <v>8293</v>
       </c>
       <c r="AE55" s="17">
-        <v>8293</v>
+        <v>13186</v>
       </c>
       <c r="AF55" s="17">
-        <v>13186</v>
+        <v>8970</v>
       </c>
       <c r="AG55" s="17">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="17">
         <v>0</v>
       </c>
       <c r="AI55" s="17">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AJ55" s="17">
-        <v>10947</v>
+        <v>7618</v>
       </c>
       <c r="AK55" s="17">
-        <v>7618</v>
+        <v>13197</v>
       </c>
       <c r="AL55" s="17">
-        <v>13197</v>
+        <v>17235</v>
       </c>
       <c r="AM55" s="17">
-        <v>17235</v>
+        <v>1690</v>
       </c>
       <c r="AN55" s="17">
-        <v>1690</v>
+        <v>6307</v>
       </c>
       <c r="AO55" s="17">
-        <v>6307</v>
+        <v>1678</v>
       </c>
       <c r="AP55" s="17">
-        <v>1678</v>
+        <v>4422</v>
       </c>
       <c r="AQ55" s="17">
-        <v>4422</v>
+        <v>10538</v>
       </c>
       <c r="AR55" s="17">
-        <v>10538</v>
+        <v>10082</v>
       </c>
       <c r="AS55" s="17">
-        <v>10082</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="17">
         <v>0</v>
       </c>
       <c r="AU55" s="17">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AV55" s="17">
-        <v>230</v>
+        <v>5245</v>
       </c>
       <c r="AW55" s="17">
-        <v>5245</v>
+        <v>11469</v>
       </c>
       <c r="AX55" s="17">
-        <v>11469</v>
+        <v>18259</v>
       </c>
       <c r="AY55" s="17">
-        <v>18259</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="17">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="BA55" s="17">
-        <v>1255</v>
+        <v>1342</v>
       </c>
       <c r="BB55" s="17">
-        <v>1342</v>
+        <v>2646</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
         <v>83</v>
       </c>
@@ -7695,7 +7730,7 @@
       <c r="BA56" s="19"/>
       <c r="BB56" s="19"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>84</v>
       </c>
@@ -7761,8 +7796,8 @@
       <c r="X57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="15" t="s">
-        <v>58</v>
+      <c r="Y57" s="15">
+        <v>0</v>
       </c>
       <c r="Z57" s="15">
         <v>0</v>
@@ -7852,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>77</v>
       </c>
@@ -7919,97 +7954,97 @@
         <v>0</v>
       </c>
       <c r="Y58" s="17">
-        <v>0</v>
+        <v>14222</v>
       </c>
       <c r="Z58" s="17">
-        <v>14222</v>
+        <v>5428</v>
       </c>
       <c r="AA58" s="17">
-        <v>5428</v>
+        <v>9942</v>
       </c>
       <c r="AB58" s="17">
-        <v>9942</v>
+        <v>19529</v>
       </c>
       <c r="AC58" s="17">
-        <v>19529</v>
+        <v>18585</v>
       </c>
       <c r="AD58" s="17">
-        <v>18585</v>
+        <v>23709</v>
       </c>
       <c r="AE58" s="17">
-        <v>23709</v>
+        <v>28015</v>
       </c>
       <c r="AF58" s="17">
-        <v>28015</v>
+        <v>17802</v>
       </c>
       <c r="AG58" s="17">
-        <v>17802</v>
+        <v>2312</v>
       </c>
       <c r="AH58" s="17">
-        <v>2312</v>
+        <v>296</v>
       </c>
       <c r="AI58" s="17">
-        <v>296</v>
+        <v>17405</v>
       </c>
       <c r="AJ58" s="17">
-        <v>17405</v>
+        <v>14980</v>
       </c>
       <c r="AK58" s="17">
-        <v>14980</v>
+        <v>28574</v>
       </c>
       <c r="AL58" s="17">
-        <v>28574</v>
+        <v>23940</v>
       </c>
       <c r="AM58" s="17">
-        <v>23940</v>
+        <v>11975</v>
       </c>
       <c r="AN58" s="17">
-        <v>11975</v>
+        <v>20084</v>
       </c>
       <c r="AO58" s="17">
-        <v>20084</v>
+        <v>20722</v>
       </c>
       <c r="AP58" s="17">
-        <v>20722</v>
+        <v>26157</v>
       </c>
       <c r="AQ58" s="17">
-        <v>26157</v>
+        <v>33687</v>
       </c>
       <c r="AR58" s="17">
-        <v>33687</v>
+        <v>16586</v>
       </c>
       <c r="AS58" s="17">
-        <v>16586</v>
+        <v>5840</v>
       </c>
       <c r="AT58" s="17">
-        <v>5840</v>
+        <v>326</v>
       </c>
       <c r="AU58" s="17">
-        <v>326</v>
+        <v>1641</v>
       </c>
       <c r="AV58" s="17">
-        <v>1641</v>
+        <v>15039</v>
       </c>
       <c r="AW58" s="17">
-        <v>15039</v>
+        <v>19409</v>
       </c>
       <c r="AX58" s="17">
-        <v>19409</v>
+        <v>24596</v>
       </c>
       <c r="AY58" s="17">
-        <v>24596</v>
+        <v>4603</v>
       </c>
       <c r="AZ58" s="17">
-        <v>4603</v>
+        <v>15191</v>
       </c>
       <c r="BA58" s="17">
-        <v>15191</v>
+        <v>16242</v>
       </c>
       <c r="BB58" s="17">
-        <v>16242</v>
+        <v>16961</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8064,7 +8099,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8119,7 +8154,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8174,7 +8209,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>85</v>
       </c>
@@ -8331,7 +8366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8386,7 +8421,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>86</v>
       </c>
@@ -8443,7 +8478,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8541,48 +8576,48 @@
       <c r="AH65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI65" s="11" t="s">
-        <v>58</v>
+      <c r="AI65" s="11">
+        <v>2693</v>
       </c>
       <c r="AJ65" s="11">
+        <v>9989</v>
+      </c>
+      <c r="AK65" s="11">
+        <v>5693</v>
+      </c>
+      <c r="AL65" s="11">
         <v>2693</v>
       </c>
-      <c r="AK65" s="11">
-        <v>9989</v>
-      </c>
-      <c r="AL65" s="11">
-        <v>5693</v>
-      </c>
       <c r="AM65" s="11">
-        <v>2693</v>
+        <v>1194</v>
       </c>
       <c r="AN65" s="11">
-        <v>1194</v>
+        <v>17149</v>
       </c>
       <c r="AO65" s="11">
-        <v>17149</v>
+        <v>21718</v>
       </c>
       <c r="AP65" s="11">
-        <v>21718</v>
+        <v>29949</v>
       </c>
       <c r="AQ65" s="11">
-        <v>29949</v>
-      </c>
-      <c r="AR65" s="11">
         <v>19778</v>
       </c>
+      <c r="AR65" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS65" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV65" s="11">
+      <c r="AU65" s="11">
         <v>11342</v>
       </c>
+      <c r="AV65" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW65" s="11" t="s">
         <v>58</v>
       </c>
@@ -8602,7 +8637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8670,98 +8705,98 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>50266</v>
       </c>
       <c r="Z66" s="13">
-        <v>50266</v>
+        <v>52177</v>
       </c>
       <c r="AA66" s="13">
-        <v>52177</v>
+        <v>50452</v>
       </c>
       <c r="AB66" s="13">
-        <v>50452</v>
+        <v>56896</v>
       </c>
       <c r="AC66" s="13">
-        <v>56896</v>
+        <v>182991</v>
       </c>
       <c r="AD66" s="13">
-        <v>182991</v>
+        <v>145463</v>
       </c>
       <c r="AE66" s="13">
-        <v>145463</v>
+        <v>32396</v>
       </c>
       <c r="AF66" s="13">
-        <v>32396</v>
+        <v>1934</v>
       </c>
       <c r="AG66" s="13">
-        <v>1934</v>
+        <v>336</v>
       </c>
       <c r="AH66" s="13">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AI66" s="13">
-        <v>79</v>
+        <v>79781</v>
       </c>
       <c r="AJ66" s="13">
-        <v>79781</v>
+        <v>107061</v>
       </c>
       <c r="AK66" s="13">
-        <v>107061</v>
+        <v>151197</v>
       </c>
       <c r="AL66" s="13">
-        <v>151197</v>
+        <v>25440</v>
       </c>
       <c r="AM66" s="13">
-        <v>25440</v>
+        <v>7509</v>
       </c>
       <c r="AN66" s="13">
-        <v>7509</v>
+        <v>64340</v>
       </c>
       <c r="AO66" s="13">
-        <v>64340</v>
+        <v>190961</v>
       </c>
       <c r="AP66" s="13">
-        <v>190961</v>
+        <v>236074</v>
       </c>
       <c r="AQ66" s="13">
-        <v>236074</v>
+        <v>193434</v>
       </c>
       <c r="AR66" s="13">
-        <v>193434</v>
+        <v>150143</v>
       </c>
       <c r="AS66" s="13">
-        <v>150143</v>
+        <v>13636</v>
       </c>
       <c r="AT66" s="13">
-        <v>13636</v>
+        <v>156</v>
       </c>
       <c r="AU66" s="13">
-        <v>156</v>
+        <v>14421</v>
       </c>
       <c r="AV66" s="13">
-        <v>14421</v>
+        <v>250579</v>
       </c>
       <c r="AW66" s="13">
-        <v>250579</v>
+        <v>187481</v>
       </c>
       <c r="AX66" s="13">
-        <v>187481</v>
+        <v>27650</v>
       </c>
       <c r="AY66" s="13">
-        <v>27650</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="13">
-        <v>0</v>
+        <v>141984</v>
       </c>
       <c r="BA66" s="13">
-        <v>141984</v>
+        <v>470489</v>
       </c>
       <c r="BB66" s="13">
-        <v>470489</v>
+        <v>702021</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8829,98 +8864,98 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>22457</v>
       </c>
       <c r="Z67" s="11">
-        <v>22457</v>
+        <v>27047</v>
       </c>
       <c r="AA67" s="11">
-        <v>27047</v>
+        <v>5741</v>
       </c>
       <c r="AB67" s="11">
-        <v>5741</v>
+        <v>18367</v>
       </c>
       <c r="AC67" s="11">
-        <v>18367</v>
+        <v>53117</v>
       </c>
       <c r="AD67" s="11">
-        <v>53117</v>
+        <v>55129</v>
       </c>
       <c r="AE67" s="11">
-        <v>55129</v>
+        <v>61475</v>
       </c>
       <c r="AF67" s="11">
-        <v>61475</v>
+        <v>30465</v>
       </c>
       <c r="AG67" s="11">
-        <v>30465</v>
+        <v>21233</v>
       </c>
       <c r="AH67" s="11">
-        <v>21233</v>
+        <v>1381</v>
       </c>
       <c r="AI67" s="11">
-        <v>1381</v>
+        <v>13305</v>
       </c>
       <c r="AJ67" s="11">
-        <v>13305</v>
+        <v>50903</v>
       </c>
       <c r="AK67" s="11">
-        <v>50903</v>
+        <v>89627</v>
       </c>
       <c r="AL67" s="11">
-        <v>89627</v>
+        <v>78725</v>
       </c>
       <c r="AM67" s="11">
-        <v>78725</v>
+        <v>40157</v>
       </c>
       <c r="AN67" s="11">
-        <v>40157</v>
+        <v>31079</v>
       </c>
       <c r="AO67" s="11">
-        <v>31079</v>
+        <v>114048</v>
       </c>
       <c r="AP67" s="11">
-        <v>114048</v>
+        <v>51454</v>
       </c>
       <c r="AQ67" s="11">
-        <v>51454</v>
+        <v>56038</v>
       </c>
       <c r="AR67" s="11">
-        <v>56038</v>
+        <v>30704</v>
       </c>
       <c r="AS67" s="11">
-        <v>30704</v>
+        <v>40155</v>
       </c>
       <c r="AT67" s="11">
-        <v>40155</v>
+        <v>16095</v>
       </c>
       <c r="AU67" s="11">
-        <v>16095</v>
+        <v>5201</v>
       </c>
       <c r="AV67" s="11">
-        <v>5201</v>
+        <v>82896</v>
       </c>
       <c r="AW67" s="11">
-        <v>82896</v>
+        <v>103319</v>
       </c>
       <c r="AX67" s="11">
-        <v>103319</v>
+        <v>103885</v>
       </c>
       <c r="AY67" s="11">
-        <v>103885</v>
+        <v>73942</v>
       </c>
       <c r="AZ67" s="11">
-        <v>73942</v>
+        <v>96172</v>
       </c>
       <c r="BA67" s="11">
-        <v>96172</v>
+        <v>103721</v>
       </c>
       <c r="BB67" s="11">
-        <v>103721</v>
+        <v>135885</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -8988,8 +9023,8 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>0</v>
       </c>
       <c r="Z68" s="13">
         <v>0</v>
@@ -9010,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="AF68" s="13">
-        <v>0</v>
+        <v>33980</v>
       </c>
       <c r="AG68" s="13">
-        <v>33980</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="13">
         <v>0</v>
@@ -9049,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="AS68" s="13">
-        <v>0</v>
+        <v>3405</v>
       </c>
       <c r="AT68" s="13">
-        <v>3405</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AV68" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="13">
         <v>0</v>
@@ -9079,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9147,98 +9182,98 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>606128</v>
       </c>
       <c r="Z69" s="11">
-        <v>606128</v>
+        <v>81213</v>
       </c>
       <c r="AA69" s="11">
-        <v>81213</v>
+        <v>13271</v>
       </c>
       <c r="AB69" s="11">
-        <v>13271</v>
+        <v>611787</v>
       </c>
       <c r="AC69" s="11">
-        <v>611787</v>
+        <v>539366</v>
       </c>
       <c r="AD69" s="11">
-        <v>539366</v>
+        <v>570507</v>
       </c>
       <c r="AE69" s="11">
-        <v>570507</v>
+        <v>663193</v>
       </c>
       <c r="AF69" s="11">
-        <v>663193</v>
+        <v>264458</v>
       </c>
       <c r="AG69" s="11">
-        <v>264458</v>
+        <v>1684</v>
       </c>
       <c r="AH69" s="11">
-        <v>1684</v>
+        <v>2314</v>
       </c>
       <c r="AI69" s="11">
-        <v>2314</v>
+        <v>240514</v>
       </c>
       <c r="AJ69" s="11">
-        <v>240514</v>
+        <v>259358</v>
       </c>
       <c r="AK69" s="11">
-        <v>259358</v>
+        <v>890212</v>
       </c>
       <c r="AL69" s="11">
-        <v>890212</v>
+        <v>289045</v>
       </c>
       <c r="AM69" s="11">
-        <v>289045</v>
+        <v>977169</v>
       </c>
       <c r="AN69" s="11">
-        <v>977169</v>
+        <v>1153295</v>
       </c>
       <c r="AO69" s="11">
-        <v>1153295</v>
+        <v>1147469</v>
       </c>
       <c r="AP69" s="11">
-        <v>1147469</v>
+        <v>1435950</v>
       </c>
       <c r="AQ69" s="11">
-        <v>1435950</v>
+        <v>1846357</v>
       </c>
       <c r="AR69" s="11">
-        <v>1846357</v>
+        <v>148597</v>
       </c>
       <c r="AS69" s="11">
-        <v>148597</v>
+        <v>32839</v>
       </c>
       <c r="AT69" s="11">
-        <v>32839</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="11">
-        <v>0</v>
+        <v>5970</v>
       </c>
       <c r="AV69" s="11">
-        <v>5970</v>
+        <v>919568</v>
       </c>
       <c r="AW69" s="11">
-        <v>919568</v>
+        <v>573239</v>
       </c>
       <c r="AX69" s="11">
-        <v>573239</v>
+        <v>576681</v>
       </c>
       <c r="AY69" s="11">
-        <v>576681</v>
+        <v>356301</v>
       </c>
       <c r="AZ69" s="11">
-        <v>356301</v>
+        <v>1870288</v>
       </c>
       <c r="BA69" s="11">
-        <v>1870288</v>
+        <v>1328364</v>
       </c>
       <c r="BB69" s="11">
-        <v>1328364</v>
+        <v>629506</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9321,11 +9356,11 @@
       <c r="AC70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD70" s="13" t="s">
-        <v>58</v>
+      <c r="AD70" s="13">
+        <v>42</v>
       </c>
       <c r="AE70" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="13">
         <v>0</v>
@@ -9397,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -9510,8 +9545,8 @@
       <c r="AM71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN71" s="11" t="s">
-        <v>58</v>
+      <c r="AN71" s="11">
+        <v>0</v>
       </c>
       <c r="AO71" s="11">
         <v>0</v>
@@ -9528,8 +9563,8 @@
       <c r="AS71" s="11">
         <v>0</v>
       </c>
-      <c r="AT71" s="11">
-        <v>0</v>
+      <c r="AT71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>58</v>
@@ -9556,7 +9591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>65</v>
       </c>
@@ -9669,8 +9704,8 @@
       <c r="AM72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN72" s="13" t="s">
-        <v>58</v>
+      <c r="AN72" s="13">
+        <v>0</v>
       </c>
       <c r="AO72" s="13">
         <v>0</v>
@@ -9687,8 +9722,8 @@
       <c r="AS72" s="13">
         <v>0</v>
       </c>
-      <c r="AT72" s="13">
-        <v>0</v>
+      <c r="AT72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU72" s="13" t="s">
         <v>58</v>
@@ -9715,7 +9750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>66</v>
       </c>
@@ -9828,8 +9863,8 @@
       <c r="AM73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN73" s="11" t="s">
-        <v>58</v>
+      <c r="AN73" s="11">
+        <v>0</v>
       </c>
       <c r="AO73" s="11">
         <v>0</v>
@@ -9846,8 +9881,8 @@
       <c r="AS73" s="11">
         <v>0</v>
       </c>
-      <c r="AT73" s="11">
-        <v>0</v>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU73" s="11" t="s">
         <v>58</v>
@@ -9874,7 +9909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>67</v>
       </c>
@@ -9942,89 +9977,89 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>46</v>
       </c>
       <c r="Z74" s="13">
-        <v>46</v>
+        <v>1238</v>
       </c>
       <c r="AA74" s="13">
-        <v>1238</v>
+        <v>696</v>
       </c>
       <c r="AB74" s="13">
-        <v>696</v>
+        <v>546</v>
       </c>
       <c r="AC74" s="13">
-        <v>546</v>
+        <v>167</v>
       </c>
       <c r="AD74" s="13">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="AE74" s="13">
-        <v>223</v>
+        <v>1882</v>
       </c>
       <c r="AF74" s="13">
-        <v>1882</v>
+        <v>3295</v>
       </c>
       <c r="AG74" s="13">
-        <v>3295</v>
+        <v>1705</v>
       </c>
       <c r="AH74" s="13">
-        <v>1705</v>
+        <v>258</v>
       </c>
       <c r="AI74" s="13">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AJ74" s="13">
-        <v>196</v>
+        <v>1896</v>
       </c>
       <c r="AK74" s="13">
-        <v>1896</v>
+        <v>7435</v>
       </c>
       <c r="AL74" s="13">
-        <v>7435</v>
+        <v>6182</v>
       </c>
       <c r="AM74" s="13">
-        <v>6182</v>
+        <v>6999</v>
       </c>
       <c r="AN74" s="13">
-        <v>6999</v>
+        <v>1</v>
       </c>
       <c r="AO74" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="13">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AQ74" s="13">
-        <v>600</v>
+        <v>6120</v>
       </c>
       <c r="AR74" s="13">
-        <v>6120</v>
+        <v>12752</v>
       </c>
       <c r="AS74" s="13">
-        <v>12752</v>
+        <v>30020</v>
       </c>
       <c r="AT74" s="13">
-        <v>30020</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV74" s="13">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="AW74" s="13">
-        <v>960</v>
+        <v>4966</v>
       </c>
       <c r="AX74" s="13">
-        <v>4966</v>
+        <v>6480</v>
       </c>
       <c r="AY74" s="13">
-        <v>6480</v>
+        <v>10346</v>
       </c>
       <c r="AZ74" s="13">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="13">
         <v>0</v>
@@ -10033,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>68</v>
       </c>
@@ -10125,11 +10160,11 @@
       <c r="AF75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH75" s="11">
-        <v>0</v>
+      <c r="AG75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI75" s="11" t="s">
         <v>58</v>
@@ -10192,7 +10227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>69</v>
       </c>
@@ -10287,38 +10322,38 @@
       <c r="AG76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH76" s="13" t="s">
-        <v>58</v>
+      <c r="AH76" s="13">
+        <v>23</v>
       </c>
       <c r="AI76" s="13">
+        <v>121</v>
+      </c>
+      <c r="AJ76" s="13">
+        <v>27</v>
+      </c>
+      <c r="AK76" s="13">
+        <v>6450</v>
+      </c>
+      <c r="AL76" s="13">
+        <v>26</v>
+      </c>
+      <c r="AM76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="13">
         <v>23</v>
       </c>
-      <c r="AJ76" s="13">
-        <v>121</v>
-      </c>
-      <c r="AK76" s="13">
-        <v>27</v>
-      </c>
-      <c r="AL76" s="13">
-        <v>6450</v>
-      </c>
-      <c r="AM76" s="13">
-        <v>26</v>
-      </c>
-      <c r="AN76" s="13">
-        <v>0</v>
-      </c>
       <c r="AO76" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="13">
-        <v>0</v>
+        <v>12064</v>
       </c>
       <c r="AQ76" s="13">
-        <v>12064</v>
+        <v>2400</v>
       </c>
       <c r="AR76" s="13">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="AS76" s="13">
         <v>0</v>
@@ -10336,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="AX76" s="13">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="AY76" s="13">
-        <v>6257</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="13">
         <v>0</v>
@@ -10348,10 +10383,10 @@
         <v>0</v>
       </c>
       <c r="BB76" s="13">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>80</v>
       </c>
@@ -10418,97 +10453,97 @@
         <v>0</v>
       </c>
       <c r="Y77" s="15">
-        <v>0</v>
+        <v>678897</v>
       </c>
       <c r="Z77" s="15">
-        <v>678897</v>
+        <v>161675</v>
       </c>
       <c r="AA77" s="15">
-        <v>161675</v>
+        <v>70160</v>
       </c>
       <c r="AB77" s="15">
-        <v>70160</v>
+        <v>687596</v>
       </c>
       <c r="AC77" s="15">
-        <v>687596</v>
+        <v>775641</v>
       </c>
       <c r="AD77" s="15">
-        <v>775641</v>
+        <v>771364</v>
       </c>
       <c r="AE77" s="15">
-        <v>771364</v>
+        <v>758946</v>
       </c>
       <c r="AF77" s="15">
-        <v>758946</v>
+        <v>334132</v>
       </c>
       <c r="AG77" s="15">
-        <v>334132</v>
+        <v>24958</v>
       </c>
       <c r="AH77" s="15">
-        <v>24958</v>
+        <v>4055</v>
       </c>
       <c r="AI77" s="15">
-        <v>4055</v>
+        <v>336610</v>
       </c>
       <c r="AJ77" s="15">
-        <v>336610</v>
+        <v>429234</v>
       </c>
       <c r="AK77" s="15">
-        <v>429234</v>
+        <v>1150614</v>
       </c>
       <c r="AL77" s="15">
-        <v>1150614</v>
+        <v>402111</v>
       </c>
       <c r="AM77" s="15">
-        <v>402111</v>
+        <v>1033028</v>
       </c>
       <c r="AN77" s="15">
-        <v>1033028</v>
+        <v>1265887</v>
       </c>
       <c r="AO77" s="15">
-        <v>1265887</v>
+        <v>1474196</v>
       </c>
       <c r="AP77" s="15">
-        <v>1474196</v>
+        <v>1766091</v>
       </c>
       <c r="AQ77" s="15">
-        <v>1766091</v>
+        <v>2124127</v>
       </c>
       <c r="AR77" s="15">
-        <v>2124127</v>
+        <v>342196</v>
       </c>
       <c r="AS77" s="15">
-        <v>342196</v>
+        <v>120055</v>
       </c>
       <c r="AT77" s="15">
-        <v>120055</v>
+        <v>16251</v>
       </c>
       <c r="AU77" s="15">
-        <v>16251</v>
+        <v>37006</v>
       </c>
       <c r="AV77" s="15">
-        <v>37006</v>
+        <v>1254003</v>
       </c>
       <c r="AW77" s="15">
-        <v>1254003</v>
+        <v>869005</v>
       </c>
       <c r="AX77" s="15">
-        <v>869005</v>
+        <v>720953</v>
       </c>
       <c r="AY77" s="15">
-        <v>720953</v>
+        <v>440589</v>
       </c>
       <c r="AZ77" s="15">
-        <v>440589</v>
+        <v>2108444</v>
       </c>
       <c r="BA77" s="15">
-        <v>2108444</v>
+        <v>1902574</v>
       </c>
       <c r="BB77" s="15">
-        <v>1902574</v>
+        <v>1469612</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>88</v>
       </c>
@@ -10565,7 +10600,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>72</v>
       </c>
@@ -10660,8 +10695,8 @@
       <c r="AG79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH79" s="11" t="s">
-        <v>58</v>
+      <c r="AH79" s="11">
+        <v>0</v>
       </c>
       <c r="AI79" s="11">
         <v>0</v>
@@ -10675,8 +10710,8 @@
       <c r="AL79" s="11">
         <v>0</v>
       </c>
-      <c r="AM79" s="11">
-        <v>0</v>
+      <c r="AM79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN79" s="11" t="s">
         <v>58</v>
@@ -10724,7 +10759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>82</v>
       </c>
@@ -10881,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>89</v>
       </c>
@@ -10938,7 +10973,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>75</v>
       </c>
@@ -11006,98 +11041,98 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>5515</v>
       </c>
       <c r="Z82" s="11">
-        <v>5515</v>
+        <v>0</v>
       </c>
       <c r="AA82" s="11">
-        <v>0</v>
+        <v>15211</v>
       </c>
       <c r="AB82" s="11">
-        <v>15211</v>
+        <v>14487</v>
       </c>
       <c r="AC82" s="11">
-        <v>14487</v>
+        <v>4076</v>
       </c>
       <c r="AD82" s="11">
-        <v>4076</v>
+        <v>18000</v>
       </c>
       <c r="AE82" s="11">
-        <v>18000</v>
+        <v>28613</v>
       </c>
       <c r="AF82" s="11">
-        <v>28613</v>
+        <v>19466</v>
       </c>
       <c r="AG82" s="11">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AH82" s="11">
         <v>0</v>
       </c>
       <c r="AI82" s="11">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AJ82" s="11">
-        <v>36155</v>
+        <v>30141</v>
       </c>
       <c r="AK82" s="11">
-        <v>30141</v>
+        <v>52685</v>
       </c>
       <c r="AL82" s="11">
-        <v>52685</v>
+        <v>62501</v>
       </c>
       <c r="AM82" s="11">
-        <v>62501</v>
+        <v>5999</v>
       </c>
       <c r="AN82" s="11">
-        <v>5999</v>
+        <v>25228</v>
       </c>
       <c r="AO82" s="11">
-        <v>25228</v>
+        <v>6712</v>
       </c>
       <c r="AP82" s="11">
-        <v>6712</v>
+        <v>17688</v>
       </c>
       <c r="AQ82" s="11">
-        <v>17688</v>
+        <v>42178</v>
       </c>
       <c r="AR82" s="11">
-        <v>42178</v>
+        <v>40330</v>
       </c>
       <c r="AS82" s="11">
-        <v>40330</v>
-      </c>
-      <c r="AT82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU82" s="11">
+        <v>1500</v>
       </c>
       <c r="AV82" s="11">
-        <v>1500</v>
+        <v>32323</v>
       </c>
       <c r="AW82" s="11">
-        <v>32323</v>
+        <v>71050</v>
       </c>
       <c r="AX82" s="11">
-        <v>71050</v>
+        <v>139562</v>
       </c>
       <c r="AY82" s="11">
-        <v>139562</v>
+        <v>0</v>
       </c>
       <c r="AZ82" s="11">
-        <v>0</v>
+        <v>10417</v>
       </c>
       <c r="BA82" s="11">
-        <v>10417</v>
+        <v>10834</v>
       </c>
       <c r="BB82" s="11">
-        <v>10834</v>
+        <v>22162</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>76</v>
       </c>
@@ -11165,98 +11200,98 @@
       <c r="X83" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="17" t="s">
-        <v>58</v>
+      <c r="Y83" s="17">
+        <v>5515</v>
       </c>
       <c r="Z83" s="17">
-        <v>5515</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="17">
-        <v>0</v>
+        <v>15211</v>
       </c>
       <c r="AB83" s="17">
-        <v>15211</v>
+        <v>14487</v>
       </c>
       <c r="AC83" s="17">
-        <v>14487</v>
+        <v>4076</v>
       </c>
       <c r="AD83" s="17">
-        <v>4076</v>
+        <v>18000</v>
       </c>
       <c r="AE83" s="17">
-        <v>18000</v>
+        <v>28613</v>
       </c>
       <c r="AF83" s="17">
-        <v>28613</v>
+        <v>19466</v>
       </c>
       <c r="AG83" s="17">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AH83" s="17">
         <v>0</v>
       </c>
       <c r="AI83" s="17">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AJ83" s="17">
-        <v>36155</v>
+        <v>30141</v>
       </c>
       <c r="AK83" s="17">
-        <v>30141</v>
+        <v>52685</v>
       </c>
       <c r="AL83" s="17">
-        <v>52685</v>
+        <v>62501</v>
       </c>
       <c r="AM83" s="17">
-        <v>62501</v>
+        <v>5999</v>
       </c>
       <c r="AN83" s="17">
-        <v>5999</v>
+        <v>25228</v>
       </c>
       <c r="AO83" s="17">
-        <v>25228</v>
+        <v>6712</v>
       </c>
       <c r="AP83" s="17">
-        <v>6712</v>
+        <v>17688</v>
       </c>
       <c r="AQ83" s="17">
-        <v>17688</v>
+        <v>42178</v>
       </c>
       <c r="AR83" s="17">
-        <v>42178</v>
+        <v>40330</v>
       </c>
       <c r="AS83" s="17">
-        <v>40330</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="17">
         <v>0</v>
       </c>
       <c r="AU83" s="17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AV83" s="17">
-        <v>1500</v>
+        <v>32323</v>
       </c>
       <c r="AW83" s="17">
-        <v>32323</v>
+        <v>71050</v>
       </c>
       <c r="AX83" s="17">
-        <v>71050</v>
+        <v>139562</v>
       </c>
       <c r="AY83" s="17">
-        <v>139562</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="17">
-        <v>0</v>
+        <v>10417</v>
       </c>
       <c r="BA83" s="17">
-        <v>10417</v>
+        <v>10834</v>
       </c>
       <c r="BB83" s="17">
-        <v>10834</v>
+        <v>22162</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="18" t="s">
         <v>90</v>
       </c>
@@ -11313,7 +11348,7 @@
       <c r="BA84" s="19"/>
       <c r="BB84" s="19"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>84</v>
       </c>
@@ -11381,8 +11416,8 @@
       <c r="X85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="15" t="s">
-        <v>58</v>
+      <c r="Y85" s="15">
+        <v>0</v>
       </c>
       <c r="Z85" s="15">
         <v>0</v>
@@ -11472,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>91</v>
       </c>
@@ -11529,7 +11564,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>92</v>
       </c>
@@ -11597,8 +11632,8 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>0</v>
       </c>
       <c r="Z87" s="11">
         <v>0</v>
@@ -11688,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="16" t="s">
         <v>77</v>
       </c>
@@ -11755,97 +11790,97 @@
         <v>0</v>
       </c>
       <c r="Y88" s="17">
-        <v>0</v>
+        <v>684412</v>
       </c>
       <c r="Z88" s="17">
-        <v>684412</v>
+        <v>161675</v>
       </c>
       <c r="AA88" s="17">
-        <v>161675</v>
+        <v>85371</v>
       </c>
       <c r="AB88" s="17">
-        <v>85371</v>
+        <v>702083</v>
       </c>
       <c r="AC88" s="17">
-        <v>702083</v>
+        <v>779717</v>
       </c>
       <c r="AD88" s="17">
-        <v>779717</v>
+        <v>789364</v>
       </c>
       <c r="AE88" s="17">
-        <v>789364</v>
+        <v>787559</v>
       </c>
       <c r="AF88" s="17">
-        <v>787559</v>
+        <v>353598</v>
       </c>
       <c r="AG88" s="17">
-        <v>353598</v>
+        <v>24958</v>
       </c>
       <c r="AH88" s="17">
-        <v>24958</v>
+        <v>4055</v>
       </c>
       <c r="AI88" s="17">
-        <v>4055</v>
+        <v>372765</v>
       </c>
       <c r="AJ88" s="17">
-        <v>372765</v>
+        <v>459375</v>
       </c>
       <c r="AK88" s="17">
-        <v>459375</v>
+        <v>1203299</v>
       </c>
       <c r="AL88" s="17">
-        <v>1203299</v>
+        <v>464612</v>
       </c>
       <c r="AM88" s="17">
-        <v>464612</v>
+        <v>1039027</v>
       </c>
       <c r="AN88" s="17">
-        <v>1039027</v>
+        <v>1291115</v>
       </c>
       <c r="AO88" s="17">
-        <v>1291115</v>
+        <v>1480908</v>
       </c>
       <c r="AP88" s="17">
-        <v>1480908</v>
+        <v>1783779</v>
       </c>
       <c r="AQ88" s="17">
-        <v>1783779</v>
+        <v>2166305</v>
       </c>
       <c r="AR88" s="17">
-        <v>2166305</v>
+        <v>382526</v>
       </c>
       <c r="AS88" s="17">
-        <v>382526</v>
+        <v>120055</v>
       </c>
       <c r="AT88" s="17">
-        <v>120055</v>
+        <v>16251</v>
       </c>
       <c r="AU88" s="17">
-        <v>16251</v>
+        <v>38506</v>
       </c>
       <c r="AV88" s="17">
-        <v>38506</v>
+        <v>1286326</v>
       </c>
       <c r="AW88" s="17">
-        <v>1286326</v>
+        <v>940055</v>
       </c>
       <c r="AX88" s="17">
-        <v>940055</v>
+        <v>860515</v>
       </c>
       <c r="AY88" s="17">
-        <v>860515</v>
+        <v>440589</v>
       </c>
       <c r="AZ88" s="17">
-        <v>440589</v>
+        <v>2118861</v>
       </c>
       <c r="BA88" s="17">
-        <v>2118861</v>
+        <v>1913408</v>
       </c>
       <c r="BB88" s="17">
-        <v>1913408</v>
+        <v>1491774</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11900,7 +11935,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11955,7 +11990,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12010,7 +12045,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>93</v>
       </c>
@@ -12167,7 +12202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12222,7 +12257,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>94</v>
       </c>
@@ -12279,7 +12314,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>56</v>
       </c>
@@ -12377,48 +12412,48 @@
       <c r="AH95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI95" s="11" t="s">
-        <v>58</v>
+      <c r="AI95" s="11">
+        <v>4254344</v>
       </c>
       <c r="AJ95" s="11">
-        <v>4254344</v>
+        <v>7840659</v>
       </c>
       <c r="AK95" s="11">
-        <v>7840659</v>
+        <v>6642940</v>
       </c>
       <c r="AL95" s="11">
-        <v>6642940</v>
+        <v>4247634</v>
       </c>
       <c r="AM95" s="11">
-        <v>4247634</v>
+        <v>7370370</v>
       </c>
       <c r="AN95" s="11">
-        <v>7370370</v>
+        <v>6959821</v>
       </c>
       <c r="AO95" s="11">
-        <v>6959821</v>
+        <v>7687788</v>
       </c>
       <c r="AP95" s="11">
-        <v>7687788</v>
+        <v>8252687</v>
       </c>
       <c r="AQ95" s="11">
-        <v>8252687</v>
-      </c>
-      <c r="AR95" s="11">
         <v>8941230</v>
       </c>
+      <c r="AR95" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS95" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV95" s="11">
+      <c r="AU95" s="11">
         <v>10600000</v>
       </c>
+      <c r="AV95" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW95" s="11" t="s">
         <v>58</v>
       </c>
@@ -12438,7 +12473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>59</v>
       </c>
@@ -12506,98 +12541,98 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>28207632</v>
       </c>
       <c r="Z96" s="13">
-        <v>28207632</v>
+        <v>28022019</v>
       </c>
       <c r="AA96" s="13">
-        <v>28022019</v>
+        <v>27997780</v>
       </c>
       <c r="AB96" s="13">
-        <v>27997780</v>
+        <v>27472718</v>
       </c>
       <c r="AC96" s="13">
-        <v>27472718</v>
+        <v>29467150</v>
       </c>
       <c r="AD96" s="13">
-        <v>29467150</v>
+        <v>30418862</v>
       </c>
       <c r="AE96" s="13">
-        <v>30418862</v>
+        <v>30361762</v>
       </c>
       <c r="AF96" s="13">
-        <v>30361762</v>
+        <v>30698413</v>
       </c>
       <c r="AG96" s="13">
-        <v>30698413</v>
+        <v>33600000</v>
       </c>
       <c r="AH96" s="13">
-        <v>33600000</v>
+        <v>39500000</v>
       </c>
       <c r="AI96" s="13">
-        <v>39500000</v>
+        <v>45150538</v>
       </c>
       <c r="AJ96" s="13">
-        <v>45150538</v>
+        <v>48160594</v>
       </c>
       <c r="AK96" s="13">
-        <v>48160594</v>
+        <v>46810217</v>
       </c>
       <c r="AL96" s="13">
-        <v>46810217</v>
+        <v>46508227</v>
       </c>
       <c r="AM96" s="13">
-        <v>46508227</v>
+        <v>46639752</v>
       </c>
       <c r="AN96" s="13">
-        <v>46639752</v>
+        <v>51970921</v>
       </c>
       <c r="AO96" s="13">
-        <v>51970921</v>
+        <v>52018796</v>
       </c>
       <c r="AP96" s="13">
-        <v>52018796</v>
+        <v>52010134</v>
       </c>
       <c r="AQ96" s="13">
-        <v>52010134</v>
+        <v>52012369</v>
       </c>
       <c r="AR96" s="13">
-        <v>52012369</v>
+        <v>52006581</v>
       </c>
       <c r="AS96" s="13">
-        <v>52006581</v>
+        <v>52245211</v>
       </c>
       <c r="AT96" s="13">
-        <v>52245211</v>
+        <v>52000000</v>
       </c>
       <c r="AU96" s="13">
-        <v>52000000</v>
+        <v>73953846</v>
       </c>
       <c r="AV96" s="13">
-        <v>73953846</v>
+        <v>81942119</v>
       </c>
       <c r="AW96" s="13">
-        <v>81942119</v>
+        <v>82992917</v>
       </c>
       <c r="AX96" s="13">
-        <v>82992917</v>
-      </c>
-      <c r="AY96" s="13">
         <v>83033033</v>
       </c>
-      <c r="AZ96" s="13" t="s">
-        <v>58</v>
+      <c r="AY96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ96" s="13">
+        <v>85020359</v>
       </c>
       <c r="BA96" s="13">
-        <v>85020359</v>
+        <v>84987175</v>
       </c>
       <c r="BB96" s="13">
-        <v>84987175</v>
+        <v>85000726</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>60</v>
       </c>
@@ -12665,98 +12700,98 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>25901961</v>
       </c>
       <c r="Z97" s="11">
-        <v>25901961</v>
+        <v>26006731</v>
       </c>
       <c r="AA97" s="11">
-        <v>26006731</v>
+        <v>26095455</v>
       </c>
       <c r="AB97" s="11">
-        <v>26095455</v>
+        <v>26774052</v>
       </c>
       <c r="AC97" s="11">
-        <v>26774052</v>
+        <v>27004067</v>
       </c>
       <c r="AD97" s="11">
-        <v>27004067</v>
+        <v>28300308</v>
       </c>
       <c r="AE97" s="11">
-        <v>28300308</v>
+        <v>30985383</v>
       </c>
       <c r="AF97" s="11">
-        <v>30985383</v>
+        <v>31246154</v>
       </c>
       <c r="AG97" s="11">
-        <v>31246154</v>
+        <v>32367378</v>
       </c>
       <c r="AH97" s="11">
-        <v>32367378</v>
+        <v>32880952</v>
       </c>
       <c r="AI97" s="11">
-        <v>32880952</v>
+        <v>38453757</v>
       </c>
       <c r="AJ97" s="11">
-        <v>38453757</v>
+        <v>39186297</v>
       </c>
       <c r="AK97" s="11">
-        <v>39186297</v>
+        <v>35397709</v>
       </c>
       <c r="AL97" s="11">
-        <v>35397709</v>
+        <v>34726511</v>
       </c>
       <c r="AM97" s="11">
-        <v>34726511</v>
+        <v>35663410</v>
       </c>
       <c r="AN97" s="11">
-        <v>35663410</v>
+        <v>35117514</v>
       </c>
       <c r="AO97" s="11">
-        <v>35117514</v>
+        <v>33269545</v>
       </c>
       <c r="AP97" s="11">
-        <v>33269545</v>
+        <v>32018668</v>
       </c>
       <c r="AQ97" s="11">
-        <v>32018668</v>
+        <v>32963529</v>
       </c>
       <c r="AR97" s="11">
-        <v>32963529</v>
+        <v>36948255</v>
       </c>
       <c r="AS97" s="11">
-        <v>36948255</v>
+        <v>39718101</v>
       </c>
       <c r="AT97" s="11">
-        <v>39718101</v>
+        <v>49829721</v>
       </c>
       <c r="AU97" s="11">
-        <v>49829721</v>
+        <v>53071429</v>
       </c>
       <c r="AV97" s="11">
-        <v>53071429</v>
+        <v>55007299</v>
       </c>
       <c r="AW97" s="11">
-        <v>55007299</v>
+        <v>55074094</v>
       </c>
       <c r="AX97" s="11">
-        <v>55074094</v>
+        <v>55111406</v>
       </c>
       <c r="AY97" s="11">
-        <v>55111406</v>
+        <v>55763198</v>
       </c>
       <c r="AZ97" s="11">
-        <v>55763198</v>
+        <v>56372802</v>
       </c>
       <c r="BA97" s="11">
-        <v>56372802</v>
+        <v>56217344</v>
       </c>
       <c r="BB97" s="11">
-        <v>56217344</v>
+        <v>56197270</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>61</v>
       </c>
@@ -12845,12 +12880,12 @@
       <c r="AE98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG98" s="13">
+      <c r="AF98" s="13">
         <v>40452381</v>
       </c>
+      <c r="AG98" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH98" s="13" t="s">
         <v>58</v>
       </c>
@@ -12884,26 +12919,26 @@
       <c r="AR98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT98" s="13">
+      <c r="AS98" s="13">
         <v>126111111</v>
       </c>
-      <c r="AU98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV98" s="13">
+      <c r="AT98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU98" s="13">
         <v>70000000</v>
       </c>
-      <c r="AW98" s="13" t="s">
-        <v>58</v>
+      <c r="AV98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW98" s="13">
+        <v>0</v>
       </c>
       <c r="AX98" s="13">
         <v>0</v>
       </c>
-      <c r="AY98" s="13">
-        <v>0</v>
+      <c r="AY98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ98" s="13" t="s">
         <v>58</v>
@@ -12915,7 +12950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>62</v>
       </c>
@@ -12983,98 +13018,98 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>64086276</v>
       </c>
       <c r="Z99" s="11">
-        <v>64086276</v>
+        <v>62955814</v>
       </c>
       <c r="AA99" s="11">
-        <v>62955814</v>
+        <v>62014019</v>
       </c>
       <c r="AB99" s="11">
-        <v>62014019</v>
+        <v>64054759</v>
       </c>
       <c r="AC99" s="11">
-        <v>64054759</v>
+        <v>64486609</v>
       </c>
       <c r="AD99" s="11">
-        <v>64486609</v>
+        <v>67157975</v>
       </c>
       <c r="AE99" s="11">
-        <v>67157975</v>
+        <v>64980698</v>
       </c>
       <c r="AF99" s="11">
-        <v>64980698</v>
+        <v>62861421</v>
       </c>
       <c r="AG99" s="11">
-        <v>62861421</v>
+        <v>7484444</v>
       </c>
       <c r="AH99" s="11">
-        <v>7484444</v>
+        <v>68058824</v>
       </c>
       <c r="AI99" s="11">
-        <v>68058824</v>
+        <v>68095696</v>
       </c>
       <c r="AJ99" s="11">
-        <v>68095696</v>
+        <v>114506843</v>
       </c>
       <c r="AK99" s="11">
-        <v>114506843</v>
+        <v>120985594</v>
       </c>
       <c r="AL99" s="11">
-        <v>120985594</v>
+        <v>121908477</v>
       </c>
       <c r="AM99" s="11">
-        <v>121908477</v>
+        <v>125005629</v>
       </c>
       <c r="AN99" s="11">
-        <v>125005629</v>
+        <v>125549205</v>
       </c>
       <c r="AO99" s="11">
-        <v>125549205</v>
+        <v>125818969</v>
       </c>
       <c r="AP99" s="11">
-        <v>125818969</v>
+        <v>127503996</v>
       </c>
       <c r="AQ99" s="11">
-        <v>127503996</v>
+        <v>127133306</v>
       </c>
       <c r="AR99" s="11">
-        <v>127133306</v>
+        <v>129977598</v>
       </c>
       <c r="AS99" s="11">
-        <v>129977598</v>
-      </c>
-      <c r="AT99" s="11">
         <v>130313492</v>
       </c>
-      <c r="AU99" s="11" t="s">
-        <v>58</v>
+      <c r="AT99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU99" s="11">
+        <v>129782609</v>
       </c>
       <c r="AV99" s="11">
-        <v>129782609</v>
+        <v>179989822</v>
       </c>
       <c r="AW99" s="11">
-        <v>179989822</v>
+        <v>180037374</v>
       </c>
       <c r="AX99" s="11">
-        <v>180037374</v>
+        <v>182807822</v>
       </c>
       <c r="AY99" s="11">
-        <v>182807822</v>
+        <v>179677761</v>
       </c>
       <c r="AZ99" s="11">
-        <v>179677761</v>
+        <v>177110606</v>
       </c>
       <c r="BA99" s="11">
-        <v>177110606</v>
+        <v>176667642</v>
       </c>
       <c r="BB99" s="11">
-        <v>176667642</v>
+        <v>177927077</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>63</v>
       </c>
@@ -13157,12 +13192,12 @@
       <c r="AC100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE100" s="13">
+      <c r="AD100" s="13">
         <v>42000000</v>
       </c>
+      <c r="AE100" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF100" s="13" t="s">
         <v>58</v>
       </c>
@@ -13233,7 +13268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>67</v>
       </c>
@@ -13301,90 +13336,90 @@
       <c r="X101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
+      <c r="Y101" s="11">
+        <v>1179487</v>
       </c>
       <c r="Z101" s="11">
-        <v>1179487</v>
+        <v>1001618</v>
       </c>
       <c r="AA101" s="11">
-        <v>1001618</v>
+        <v>1000000</v>
       </c>
       <c r="AB101" s="11">
+        <v>1001835</v>
+      </c>
+      <c r="AC101" s="11">
+        <v>1006024</v>
+      </c>
+      <c r="AD101" s="11">
+        <v>1173684</v>
+      </c>
+      <c r="AE101" s="11">
+        <v>1197201</v>
+      </c>
+      <c r="AF101" s="11">
+        <v>1199490</v>
+      </c>
+      <c r="AG101" s="11">
+        <v>1199859</v>
+      </c>
+      <c r="AH101" s="11">
+        <v>1200000</v>
+      </c>
+      <c r="AI101" s="11">
+        <v>1195122</v>
+      </c>
+      <c r="AJ101" s="11">
+        <v>6383838</v>
+      </c>
+      <c r="AK101" s="11">
+        <v>6922719</v>
+      </c>
+      <c r="AL101" s="11">
+        <v>7001133</v>
+      </c>
+      <c r="AM101" s="11">
+        <v>6868499</v>
+      </c>
+      <c r="AN101" s="11">
         <v>1000000</v>
       </c>
-      <c r="AC101" s="11">
-        <v>1001835</v>
-      </c>
-      <c r="AD101" s="11">
-        <v>1006024</v>
-      </c>
-      <c r="AE101" s="11">
-        <v>1173684</v>
-      </c>
-      <c r="AF101" s="11">
-        <v>1197201</v>
-      </c>
-      <c r="AG101" s="11">
-        <v>1199490</v>
-      </c>
-      <c r="AH101" s="11">
-        <v>1199859</v>
-      </c>
-      <c r="AI101" s="11">
-        <v>1200000</v>
-      </c>
-      <c r="AJ101" s="11">
-        <v>1195122</v>
-      </c>
-      <c r="AK101" s="11">
-        <v>6383838</v>
-      </c>
-      <c r="AL101" s="11">
-        <v>6922719</v>
-      </c>
-      <c r="AM101" s="11">
-        <v>7001133</v>
-      </c>
-      <c r="AN101" s="11">
-        <v>6868499</v>
-      </c>
-      <c r="AO101" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AP101" s="11" t="s">
-        <v>58</v>
+      <c r="AO101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP101" s="11">
+        <v>7058824</v>
       </c>
       <c r="AQ101" s="11">
-        <v>7058824</v>
+        <v>6994286</v>
       </c>
       <c r="AR101" s="11">
-        <v>6994286</v>
+        <v>7002746</v>
       </c>
       <c r="AS101" s="11">
-        <v>7002746</v>
-      </c>
-      <c r="AT101" s="11">
         <v>6999301</v>
       </c>
-      <c r="AU101" s="11" t="s">
-        <v>58</v>
+      <c r="AT101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU101" s="11">
+        <v>2000000</v>
       </c>
       <c r="AV101" s="11">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
       <c r="AW101" s="11">
+        <v>7996779</v>
+      </c>
+      <c r="AX101" s="11">
         <v>8000000</v>
       </c>
-      <c r="AX101" s="11">
-        <v>7996779</v>
-      </c>
       <c r="AY101" s="11">
-        <v>8000000</v>
-      </c>
-      <c r="AZ101" s="11">
         <v>7995363</v>
       </c>
+      <c r="AZ101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13392,7 +13427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>69</v>
       </c>
@@ -13487,41 +13522,41 @@
       <c r="AG102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH102" s="13" t="s">
-        <v>58</v>
+      <c r="AH102" s="13">
+        <v>7666667</v>
       </c>
       <c r="AI102" s="13">
+        <v>7562500</v>
+      </c>
+      <c r="AJ102" s="13">
+        <v>6750000</v>
+      </c>
+      <c r="AK102" s="13">
+        <v>19785276</v>
+      </c>
+      <c r="AL102" s="13">
+        <v>8666667</v>
+      </c>
+      <c r="AM102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN102" s="13">
         <v>7666667</v>
       </c>
-      <c r="AJ102" s="13">
-        <v>7562500</v>
-      </c>
-      <c r="AK102" s="13">
-        <v>6750000</v>
-      </c>
-      <c r="AL102" s="13">
-        <v>19785276</v>
-      </c>
-      <c r="AM102" s="13">
-        <v>8666667</v>
-      </c>
-      <c r="AN102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO102" s="13">
-        <v>7666667</v>
-      </c>
-      <c r="AP102" s="13" t="s">
-        <v>58</v>
+      <c r="AO102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP102" s="13">
+        <v>19680261</v>
       </c>
       <c r="AQ102" s="13">
-        <v>19680261</v>
+        <v>20000000</v>
       </c>
       <c r="AR102" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="AS102" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT102" s="13" t="s">
         <v>58</v>
@@ -13535,23 +13570,23 @@
       <c r="AW102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY102" s="13">
+      <c r="AX102" s="13">
         <v>22031690</v>
       </c>
+      <c r="AY102" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="BA102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB102" s="13" t="s">
-        <v>58</v>
+      <c r="BB102" s="13">
+        <v>22000000</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>96</v>
       </c>
@@ -13608,7 +13643,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>75</v>
       </c>
@@ -13676,53 +13711,53 @@
       <c r="X104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="11" t="s">
-        <v>58</v>
+      <c r="Y104" s="11">
+        <v>2656551</v>
       </c>
       <c r="Z104" s="11">
-        <v>2656551</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="11">
-        <v>0</v>
+        <v>2169900</v>
       </c>
       <c r="AB104" s="11">
-        <v>2169900</v>
+        <v>2170012</v>
       </c>
       <c r="AC104" s="11">
-        <v>2170012</v>
+        <v>2170394</v>
       </c>
       <c r="AD104" s="11">
-        <v>2170394</v>
+        <v>2170505</v>
       </c>
       <c r="AE104" s="11">
-        <v>2170505</v>
+        <v>2169953</v>
       </c>
       <c r="AF104" s="11">
-        <v>2169953</v>
+        <v>2170123</v>
       </c>
       <c r="AG104" s="11">
-        <v>2170123</v>
+        <v>0</v>
       </c>
       <c r="AH104" s="11">
         <v>0</v>
       </c>
       <c r="AI104" s="11">
-        <v>0</v>
+        <v>3302731</v>
       </c>
       <c r="AJ104" s="11">
-        <v>3302731</v>
+        <v>3956550</v>
       </c>
       <c r="AK104" s="11">
-        <v>3956550</v>
+        <v>3992195</v>
       </c>
       <c r="AL104" s="11">
-        <v>3992195</v>
+        <v>3626400</v>
       </c>
       <c r="AM104" s="11">
-        <v>3626400</v>
+        <v>3549704</v>
       </c>
       <c r="AN104" s="11">
-        <v>3549704</v>
+        <v>4000000</v>
       </c>
       <c r="AO104" s="11">
         <v>4000000</v>
@@ -13731,40 +13766,40 @@
         <v>4000000</v>
       </c>
       <c r="AQ104" s="11">
-        <v>4000000</v>
+        <v>4002467</v>
       </c>
       <c r="AR104" s="11">
-        <v>4002467</v>
+        <v>4000198</v>
       </c>
       <c r="AS104" s="11">
-        <v>4000198</v>
-      </c>
-      <c r="AT104" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU104" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU104" s="11">
+        <v>6521739</v>
       </c>
       <c r="AV104" s="11">
-        <v>6521739</v>
+        <v>6162631</v>
       </c>
       <c r="AW104" s="11">
-        <v>6162631</v>
+        <v>6194960</v>
       </c>
       <c r="AX104" s="11">
-        <v>6194960</v>
+        <v>7643463</v>
       </c>
       <c r="AY104" s="11">
-        <v>7643463</v>
+        <v>0</v>
       </c>
       <c r="AZ104" s="11">
-        <v>0</v>
+        <v>8300398</v>
       </c>
       <c r="BA104" s="11">
-        <v>8300398</v>
+        <v>8073025</v>
       </c>
       <c r="BB104" s="11">
-        <v>8073025</v>
+        <v>8375661</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghand/ghesafha/product/monthly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD693E-21F6-4428-B95E-58912FF957F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF5BF9-9CB2-4FE6-83F1-6A1868C9B5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -793,12 +793,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -853,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1552,50 +1552,50 @@
       <c r="AF11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
+      <c r="AG11" s="11">
+        <v>633</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>1274</v>
       </c>
       <c r="AI11" s="11">
-        <v>633</v>
+        <v>857</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1274</v>
+        <v>634</v>
       </c>
       <c r="AK11" s="11">
-        <v>857</v>
+        <v>162</v>
       </c>
       <c r="AL11" s="11">
-        <v>634</v>
+        <v>2464</v>
       </c>
       <c r="AM11" s="11">
-        <v>162</v>
+        <v>2825</v>
       </c>
       <c r="AN11" s="11">
-        <v>2464</v>
+        <v>3629</v>
       </c>
       <c r="AO11" s="11">
-        <v>2825</v>
+        <v>2212</v>
       </c>
       <c r="AP11" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>2212</v>
+        <v>99</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AS11" s="11">
+        <v>1070</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU11" s="11">
-        <v>1070</v>
+      <c r="AU11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV11" s="11" t="s">
         <v>58</v>
@@ -1619,7 +1619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1681,104 +1681,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>1068</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>1068</v>
+        <v>518</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>5957</v>
       </c>
       <c r="AA12" s="13">
+        <v>7546</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>3513</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>2718</v>
+      </c>
+      <c r="AD12" s="13">
         <v>518</v>
       </c>
-      <c r="AB12" s="13">
-        <v>5957</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>7546</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>3513</v>
-      </c>
       <c r="AE12" s="13">
-        <v>2718</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="13">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="AH12" s="13">
-        <v>0</v>
+        <v>4883</v>
       </c>
       <c r="AI12" s="13">
-        <v>3950</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>4883</v>
+        <v>1667</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="13">
-        <v>1667</v>
-      </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
+        <v>866</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>5934</v>
       </c>
       <c r="AM12" s="13">
-        <v>866</v>
+        <v>4084</v>
       </c>
       <c r="AN12" s="13">
-        <v>5934</v>
+        <v>5426</v>
       </c>
       <c r="AO12" s="13">
-        <v>4084</v>
+        <v>3193</v>
       </c>
       <c r="AP12" s="13">
-        <v>5426</v>
+        <v>707</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3193</v>
+        <v>1500</v>
       </c>
       <c r="AR12" s="13">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>1500</v>
+        <v>1710</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
+        <v>4738</v>
       </c>
       <c r="AU12" s="13">
-        <v>1710</v>
+        <v>3080</v>
       </c>
       <c r="AV12" s="13">
-        <v>4738</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="13">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>2</v>
+        <v>5940</v>
       </c>
       <c r="AY12" s="13">
-        <v>0</v>
+        <v>6358</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5940</v>
+        <v>6107</v>
       </c>
       <c r="BA12" s="13">
-        <v>6358</v>
+        <v>3363</v>
       </c>
       <c r="BB12" s="13">
-        <v>6107</v>
+        <v>1908</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1840,104 +1840,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>922</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>922</v>
+        <v>332</v>
       </c>
       <c r="Z13" s="11">
-        <v>0</v>
+        <v>1939</v>
       </c>
       <c r="AA13" s="11">
-        <v>332</v>
+        <v>2561</v>
       </c>
       <c r="AB13" s="11">
-        <v>1939</v>
+        <v>1433</v>
       </c>
       <c r="AC13" s="11">
-        <v>2561</v>
+        <v>1727</v>
       </c>
       <c r="AD13" s="11">
-        <v>1433</v>
+        <v>563</v>
       </c>
       <c r="AE13" s="11">
-        <v>1727</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="AH13" s="11">
-        <v>0</v>
+        <v>3202</v>
       </c>
       <c r="AI13" s="11">
-        <v>591</v>
+        <v>2577</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3202</v>
+        <v>1502</v>
       </c>
       <c r="AK13" s="11">
-        <v>2577</v>
+        <v>227</v>
       </c>
       <c r="AL13" s="11">
-        <v>1502</v>
+        <v>1960</v>
       </c>
       <c r="AM13" s="11">
-        <v>227</v>
+        <v>2030</v>
       </c>
       <c r="AN13" s="11">
-        <v>1960</v>
+        <v>1805</v>
       </c>
       <c r="AO13" s="11">
-        <v>2030</v>
+        <v>2145</v>
       </c>
       <c r="AP13" s="11">
-        <v>1805</v>
+        <v>1348</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="11">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AT13" s="11">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="AU13" s="11">
-        <v>300</v>
+        <v>3165</v>
       </c>
       <c r="AV13" s="11">
-        <v>2035</v>
+        <v>1648</v>
       </c>
       <c r="AW13" s="11">
-        <v>3165</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
-        <v>1648</v>
+        <v>1600</v>
       </c>
       <c r="AY13" s="11">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1600</v>
+        <v>2270</v>
       </c>
       <c r="BA13" s="11">
-        <v>2060</v>
+        <v>2870</v>
       </c>
       <c r="BB13" s="11">
-        <v>2270</v>
+        <v>1778</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1999,11 +1999,11 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
       </c>
       <c r="Y14" s="13">
         <v>0</v>
@@ -2029,11 +2029,11 @@
       <c r="AF14" s="13">
         <v>0</v>
       </c>
-      <c r="AG14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>0</v>
+      <c r="AG14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI14" s="13" t="s">
         <v>58</v>
@@ -2044,14 +2044,14 @@
       <c r="AK14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="13" t="s">
-        <v>58</v>
+      <c r="AL14" s="13">
+        <v>0</v>
       </c>
       <c r="AM14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN14" s="13">
-        <v>0</v>
+      <c r="AN14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO14" s="13" t="s">
         <v>58</v>
@@ -2059,8 +2059,8 @@
       <c r="AP14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ14" s="13" t="s">
-        <v>58</v>
+      <c r="AQ14" s="13">
+        <v>0</v>
       </c>
       <c r="AR14" s="13">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2158,104 +2158,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>2769</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
       </c>
       <c r="Y15" s="11">
-        <v>2769</v>
+        <v>807</v>
       </c>
       <c r="Z15" s="11">
-        <v>0</v>
+        <v>11956</v>
       </c>
       <c r="AA15" s="11">
-        <v>807</v>
+        <v>13972</v>
       </c>
       <c r="AB15" s="11">
-        <v>11956</v>
+        <v>10135</v>
       </c>
       <c r="AC15" s="11">
-        <v>13972</v>
+        <v>6360</v>
       </c>
       <c r="AD15" s="11">
-        <v>10135</v>
+        <v>732</v>
       </c>
       <c r="AE15" s="11">
-        <v>6360</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="11">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
+        <v>7185</v>
       </c>
       <c r="AH15" s="11">
-        <v>0</v>
+        <v>8990</v>
       </c>
       <c r="AI15" s="11">
-        <v>7185</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>8990</v>
+        <v>3513</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK15" s="11">
-        <v>3513</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
+        <v>1565</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>10585</v>
       </c>
       <c r="AM15" s="11">
-        <v>1565</v>
+        <v>14551</v>
       </c>
       <c r="AN15" s="11">
-        <v>10585</v>
+        <v>12171</v>
       </c>
       <c r="AO15" s="11">
-        <v>14551</v>
+        <v>7298</v>
       </c>
       <c r="AP15" s="11">
-        <v>12171</v>
+        <v>479</v>
       </c>
       <c r="AQ15" s="11">
-        <v>7298</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="11">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
-        <v>0</v>
+        <v>2852</v>
       </c>
       <c r="AT15" s="11">
-        <v>0</v>
+        <v>8504</v>
       </c>
       <c r="AU15" s="11">
-        <v>2852</v>
+        <v>4796</v>
       </c>
       <c r="AV15" s="11">
-        <v>8504</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="11">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="11">
-        <v>0</v>
+        <v>11159</v>
       </c>
       <c r="AY15" s="11">
-        <v>0</v>
+        <v>12852</v>
       </c>
       <c r="AZ15" s="11">
-        <v>11159</v>
+        <v>12892</v>
       </c>
       <c r="BA15" s="11">
-        <v>12852</v>
+        <v>7436</v>
       </c>
       <c r="BB15" s="11">
-        <v>12892</v>
+        <v>2573</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2332,11 +2332,11 @@
       <c r="AA16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>58</v>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
         <v>0</v>
@@ -2347,11 +2347,11 @@
       <c r="AF16" s="13">
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2362,14 +2362,14 @@
       <c r="AK16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL16" s="13" t="s">
-        <v>58</v>
+      <c r="AL16" s="13">
+        <v>0</v>
       </c>
       <c r="AM16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN16" s="13">
-        <v>0</v>
+      <c r="AN16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO16" s="13" t="s">
         <v>58</v>
@@ -2377,8 +2377,8 @@
       <c r="AP16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
+      <c r="AQ16" s="13">
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="13">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2521,14 +2521,14 @@
       <c r="AK17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
+      <c r="AL17" s="11">
+        <v>0</v>
       </c>
       <c r="AM17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN17" s="11">
-        <v>0</v>
+      <c r="AN17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO17" s="11" t="s">
         <v>58</v>
@@ -2536,14 +2536,14 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>0</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT17" s="11" t="s">
         <v>58</v>
@@ -2573,7 +2573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2680,14 +2680,14 @@
       <c r="AK18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>58</v>
+      <c r="AL18" s="13">
+        <v>0</v>
       </c>
       <c r="AM18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN18" s="13">
-        <v>0</v>
+      <c r="AN18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO18" s="13" t="s">
         <v>58</v>
@@ -2695,14 +2695,14 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>0</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>58</v>
@@ -2732,7 +2732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2839,14 +2839,14 @@
       <c r="AK19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL19" s="11" t="s">
-        <v>58</v>
+      <c r="AL19" s="11">
+        <v>0</v>
       </c>
       <c r="AM19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN19" s="11">
-        <v>0</v>
+      <c r="AN19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO19" s="11" t="s">
         <v>58</v>
@@ -2854,14 +2854,14 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>0</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>58</v>
@@ -2891,7 +2891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2953,11 +2953,11 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2983,11 +2983,11 @@
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="13" t="s">
         <v>58</v>
@@ -2998,14 +2998,14 @@
       <c r="AK20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL20" s="13" t="s">
-        <v>58</v>
+      <c r="AL20" s="13">
+        <v>0</v>
       </c>
       <c r="AM20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="13">
-        <v>0</v>
+      <c r="AN20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO20" s="13" t="s">
         <v>58</v>
@@ -3013,8 +3013,8 @@
       <c r="AP20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AQ20" s="13">
+        <v>0</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3136,14 +3136,14 @@
       <c r="AD21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>58</v>
+      <c r="AE21" s="11">
+        <v>0</v>
       </c>
       <c r="AF21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>58</v>
@@ -3209,7 +3209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3298,14 +3298,14 @@
       <c r="AE22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>58</v>
+      <c r="AF22" s="13">
+        <v>0</v>
       </c>
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13">
-        <v>0</v>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
@@ -3316,14 +3316,14 @@
       <c r="AK22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL22" s="13" t="s">
-        <v>58</v>
+      <c r="AL22" s="13">
+        <v>0</v>
       </c>
       <c r="AM22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="13">
-        <v>0</v>
+      <c r="AN22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO22" s="13" t="s">
         <v>58</v>
@@ -3331,8 +3331,8 @@
       <c r="AP22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
+      <c r="AQ22" s="13">
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>70</v>
       </c>
@@ -3429,103 +3429,103 @@
         <v>0</v>
       </c>
       <c r="W23" s="15">
-        <v>0</v>
+        <v>4759</v>
       </c>
       <c r="X23" s="15">
         <v>0</v>
       </c>
       <c r="Y23" s="15">
-        <v>4759</v>
+        <v>1657</v>
       </c>
       <c r="Z23" s="15">
-        <v>0</v>
+        <v>19852</v>
       </c>
       <c r="AA23" s="15">
-        <v>1657</v>
+        <v>24079</v>
       </c>
       <c r="AB23" s="15">
-        <v>19852</v>
+        <v>15081</v>
       </c>
       <c r="AC23" s="15">
-        <v>24079</v>
+        <v>10805</v>
       </c>
       <c r="AD23" s="15">
-        <v>15081</v>
+        <v>1813</v>
       </c>
       <c r="AE23" s="15">
-        <v>10805</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="15">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="15">
-        <v>0</v>
+        <v>12359</v>
       </c>
       <c r="AH23" s="15">
-        <v>0</v>
+        <v>18349</v>
       </c>
       <c r="AI23" s="15">
-        <v>12359</v>
+        <v>8614</v>
       </c>
       <c r="AJ23" s="15">
-        <v>18349</v>
+        <v>2136</v>
       </c>
       <c r="AK23" s="15">
-        <v>8614</v>
+        <v>2820</v>
       </c>
       <c r="AL23" s="15">
-        <v>2136</v>
+        <v>20943</v>
       </c>
       <c r="AM23" s="15">
-        <v>2820</v>
+        <v>23490</v>
       </c>
       <c r="AN23" s="15">
-        <v>20943</v>
+        <v>23031</v>
       </c>
       <c r="AO23" s="15">
-        <v>23490</v>
+        <v>14848</v>
       </c>
       <c r="AP23" s="15">
-        <v>23031</v>
+        <v>2633</v>
       </c>
       <c r="AQ23" s="15">
-        <v>14848</v>
+        <v>1500</v>
       </c>
       <c r="AR23" s="15">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="15">
-        <v>1500</v>
+        <v>5932</v>
       </c>
       <c r="AT23" s="15">
-        <v>0</v>
+        <v>15277</v>
       </c>
       <c r="AU23" s="15">
-        <v>5932</v>
+        <v>11041</v>
       </c>
       <c r="AV23" s="15">
-        <v>15277</v>
+        <v>1650</v>
       </c>
       <c r="AW23" s="15">
-        <v>10692</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="15">
-        <v>1650</v>
+        <v>18699</v>
       </c>
       <c r="AY23" s="15">
-        <v>0</v>
+        <v>21270</v>
       </c>
       <c r="AZ23" s="15">
-        <v>18699</v>
+        <v>21269</v>
       </c>
       <c r="BA23" s="15">
-        <v>21270</v>
+        <v>13669</v>
       </c>
       <c r="BB23" s="15">
-        <v>21269</v>
+        <v>6506</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>71</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3671,14 +3671,14 @@
       <c r="AE25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
+      <c r="AF25" s="11">
+        <v>0</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>58</v>
@@ -3741,7 +3741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>74</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>75</v>
       </c>
@@ -4017,104 +4017,104 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>2076</v>
+      </c>
+      <c r="X28" s="11">
+        <v>0</v>
       </c>
       <c r="Y28" s="11">
-        <v>2076</v>
+        <v>7010</v>
       </c>
       <c r="Z28" s="11">
-        <v>0</v>
+        <v>6676</v>
       </c>
       <c r="AA28" s="11">
-        <v>7010</v>
+        <v>1878</v>
       </c>
       <c r="AB28" s="11">
-        <v>6676</v>
+        <v>8293</v>
       </c>
       <c r="AC28" s="11">
-        <v>1878</v>
+        <v>13186</v>
       </c>
       <c r="AD28" s="11">
-        <v>8293</v>
+        <v>8970</v>
       </c>
       <c r="AE28" s="11">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AH28" s="11">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="AI28" s="11">
-        <v>10947</v>
+        <v>13197</v>
       </c>
       <c r="AJ28" s="11">
-        <v>7618</v>
+        <v>17235</v>
       </c>
       <c r="AK28" s="11">
-        <v>13197</v>
+        <v>1690</v>
       </c>
       <c r="AL28" s="11">
-        <v>17235</v>
+        <v>6307</v>
       </c>
       <c r="AM28" s="11">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="AN28" s="11">
-        <v>6307</v>
+        <v>4422</v>
       </c>
       <c r="AO28" s="11">
-        <v>1678</v>
+        <v>10538</v>
       </c>
       <c r="AP28" s="11">
-        <v>4422</v>
-      </c>
-      <c r="AQ28" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AR28" s="11">
         <v>10082</v>
       </c>
-      <c r="AS28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT28" s="11" t="s">
-        <v>58</v>
+      <c r="AQ28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS28" s="11">
+        <v>230</v>
+      </c>
+      <c r="AT28" s="11">
+        <v>5245</v>
       </c>
       <c r="AU28" s="11">
-        <v>230</v>
+        <v>11469</v>
       </c>
       <c r="AV28" s="11">
-        <v>5245</v>
-      </c>
-      <c r="AW28" s="11">
-        <v>11469</v>
+        <v>18259</v>
+      </c>
+      <c r="AW28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX28" s="11">
-        <v>18259</v>
-      </c>
-      <c r="AY28" s="11" t="s">
-        <v>58</v>
+        <v>1255</v>
+      </c>
+      <c r="AY28" s="11">
+        <v>1342</v>
       </c>
       <c r="AZ28" s="11">
-        <v>1255</v>
+        <v>2646</v>
       </c>
       <c r="BA28" s="11">
-        <v>1342</v>
+        <v>6857</v>
       </c>
       <c r="BB28" s="11">
-        <v>2646</v>
+        <v>14455</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>76</v>
       </c>
@@ -4174,11 +4174,11 @@
       <c r="V29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>58</v>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
       </c>
       <c r="Y29" s="17">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>77</v>
       </c>
@@ -4332,103 +4332,103 @@
         <v>0</v>
       </c>
       <c r="W30" s="15">
-        <v>0</v>
+        <v>6835</v>
       </c>
       <c r="X30" s="15">
         <v>0</v>
       </c>
       <c r="Y30" s="15">
-        <v>6835</v>
+        <v>8667</v>
       </c>
       <c r="Z30" s="15">
-        <v>0</v>
+        <v>26528</v>
       </c>
       <c r="AA30" s="15">
-        <v>8667</v>
+        <v>25957</v>
       </c>
       <c r="AB30" s="15">
-        <v>26528</v>
+        <v>23374</v>
       </c>
       <c r="AC30" s="15">
-        <v>25957</v>
+        <v>23991</v>
       </c>
       <c r="AD30" s="15">
-        <v>23374</v>
+        <v>10783</v>
       </c>
       <c r="AE30" s="15">
-        <v>23991</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="15">
-        <v>10783</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="15">
-        <v>0</v>
+        <v>23306</v>
       </c>
       <c r="AH30" s="15">
-        <v>0</v>
+        <v>25967</v>
       </c>
       <c r="AI30" s="15">
-        <v>23306</v>
+        <v>21811</v>
       </c>
       <c r="AJ30" s="15">
-        <v>25967</v>
+        <v>19371</v>
       </c>
       <c r="AK30" s="15">
-        <v>21811</v>
+        <v>4510</v>
       </c>
       <c r="AL30" s="15">
-        <v>19371</v>
+        <v>27250</v>
       </c>
       <c r="AM30" s="15">
-        <v>4510</v>
+        <v>25168</v>
       </c>
       <c r="AN30" s="15">
-        <v>27250</v>
+        <v>27453</v>
       </c>
       <c r="AO30" s="15">
-        <v>25168</v>
+        <v>25386</v>
       </c>
       <c r="AP30" s="15">
-        <v>27453</v>
+        <v>12715</v>
       </c>
       <c r="AQ30" s="15">
-        <v>25386</v>
+        <v>1500</v>
       </c>
       <c r="AR30" s="15">
-        <v>12616</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="15">
-        <v>1500</v>
+        <v>6162</v>
       </c>
       <c r="AT30" s="15">
-        <v>0</v>
+        <v>20522</v>
       </c>
       <c r="AU30" s="15">
-        <v>6162</v>
+        <v>22510</v>
       </c>
       <c r="AV30" s="15">
-        <v>20522</v>
+        <v>19909</v>
       </c>
       <c r="AW30" s="15">
-        <v>22161</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="15">
-        <v>19909</v>
+        <v>19954</v>
       </c>
       <c r="AY30" s="15">
-        <v>0</v>
+        <v>22612</v>
       </c>
       <c r="AZ30" s="15">
-        <v>19954</v>
+        <v>23915</v>
       </c>
       <c r="BA30" s="15">
-        <v>22612</v>
+        <v>20526</v>
       </c>
       <c r="BB30" s="15">
-        <v>23915</v>
+        <v>20961</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4483,7 +4483,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4538,7 +4538,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4593,7 +4593,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4805,7 +4805,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>79</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4954,50 +4954,50 @@
       <c r="AF37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH37" s="11" t="s">
-        <v>58</v>
+      <c r="AG37" s="11">
+        <v>633</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>1274</v>
       </c>
       <c r="AI37" s="11">
-        <v>633</v>
+        <v>857</v>
       </c>
       <c r="AJ37" s="11">
-        <v>1274</v>
+        <v>634</v>
       </c>
       <c r="AK37" s="11">
-        <v>857</v>
+        <v>162</v>
       </c>
       <c r="AL37" s="11">
-        <v>634</v>
+        <v>2464</v>
       </c>
       <c r="AM37" s="11">
-        <v>162</v>
+        <v>2825</v>
       </c>
       <c r="AN37" s="11">
-        <v>2464</v>
+        <v>3629</v>
       </c>
       <c r="AO37" s="11">
-        <v>2825</v>
+        <v>2212</v>
       </c>
       <c r="AP37" s="11">
-        <v>3629</v>
-      </c>
-      <c r="AQ37" s="11">
-        <v>2212</v>
+        <v>99</v>
+      </c>
+      <c r="AQ37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AS37" s="11">
+        <v>1070</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU37" s="11">
-        <v>1070</v>
+      <c r="AU37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>58</v>
@@ -5021,7 +5021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5083,104 +5083,104 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>1782</v>
+      </c>
+      <c r="X38" s="13">
+        <v>1862</v>
       </c>
       <c r="Y38" s="13">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="Z38" s="13">
-        <v>1862</v>
+        <v>2071</v>
       </c>
       <c r="AA38" s="13">
-        <v>1802</v>
+        <v>6210</v>
       </c>
       <c r="AB38" s="13">
-        <v>2071</v>
+        <v>4782</v>
       </c>
       <c r="AC38" s="13">
-        <v>6210</v>
+        <v>1067</v>
       </c>
       <c r="AD38" s="13">
-        <v>4782</v>
+        <v>63</v>
       </c>
       <c r="AE38" s="13">
-        <v>1067</v>
+        <v>10</v>
       </c>
       <c r="AF38" s="13">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="13">
-        <v>10</v>
+        <v>1767</v>
       </c>
       <c r="AH38" s="13">
-        <v>2</v>
+        <v>2223</v>
       </c>
       <c r="AI38" s="13">
-        <v>1767</v>
+        <v>3230</v>
       </c>
       <c r="AJ38" s="13">
-        <v>2223</v>
+        <v>547</v>
       </c>
       <c r="AK38" s="13">
-        <v>3230</v>
+        <v>161</v>
       </c>
       <c r="AL38" s="13">
-        <v>547</v>
+        <v>1238</v>
       </c>
       <c r="AM38" s="13">
-        <v>161</v>
+        <v>3671</v>
       </c>
       <c r="AN38" s="13">
-        <v>1238</v>
+        <v>4539</v>
       </c>
       <c r="AO38" s="13">
-        <v>3671</v>
+        <v>3719</v>
       </c>
       <c r="AP38" s="13">
-        <v>4539</v>
+        <v>2887</v>
       </c>
       <c r="AQ38" s="13">
-        <v>3719</v>
+        <v>261</v>
       </c>
       <c r="AR38" s="13">
-        <v>2887</v>
+        <v>3</v>
       </c>
       <c r="AS38" s="13">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="AT38" s="13">
-        <v>3</v>
+        <v>3058</v>
       </c>
       <c r="AU38" s="13">
-        <v>195</v>
+        <v>2259</v>
       </c>
       <c r="AV38" s="13">
-        <v>3058</v>
+        <v>333</v>
       </c>
       <c r="AW38" s="13">
-        <v>2259</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="13">
-        <v>333</v>
+        <v>1670</v>
       </c>
       <c r="AY38" s="13">
-        <v>0</v>
+        <v>5536</v>
       </c>
       <c r="AZ38" s="13">
-        <v>1670</v>
+        <v>8259</v>
       </c>
       <c r="BA38" s="13">
-        <v>5536</v>
+        <v>432</v>
       </c>
       <c r="BB38" s="13">
-        <v>8259</v>
+        <v>923</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5242,104 +5242,104 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>867</v>
+      </c>
+      <c r="X39" s="11">
+        <v>1040</v>
       </c>
       <c r="Y39" s="11">
-        <v>867</v>
+        <v>220</v>
       </c>
       <c r="Z39" s="11">
-        <v>1040</v>
+        <v>686</v>
       </c>
       <c r="AA39" s="11">
-        <v>220</v>
+        <v>1967</v>
       </c>
       <c r="AB39" s="11">
-        <v>686</v>
+        <v>1948</v>
       </c>
       <c r="AC39" s="11">
-        <v>1967</v>
+        <v>1984</v>
       </c>
       <c r="AD39" s="11">
-        <v>1948</v>
+        <v>975</v>
       </c>
       <c r="AE39" s="11">
-        <v>1984</v>
+        <v>656</v>
       </c>
       <c r="AF39" s="11">
-        <v>975</v>
+        <v>42</v>
       </c>
       <c r="AG39" s="11">
-        <v>656</v>
+        <v>346</v>
       </c>
       <c r="AH39" s="11">
-        <v>42</v>
+        <v>1299</v>
       </c>
       <c r="AI39" s="11">
-        <v>346</v>
+        <v>2532</v>
       </c>
       <c r="AJ39" s="11">
-        <v>1299</v>
+        <v>2267</v>
       </c>
       <c r="AK39" s="11">
-        <v>2532</v>
+        <v>1126</v>
       </c>
       <c r="AL39" s="11">
-        <v>2267</v>
+        <v>885</v>
       </c>
       <c r="AM39" s="11">
-        <v>1126</v>
+        <v>3428</v>
       </c>
       <c r="AN39" s="11">
-        <v>885</v>
+        <v>1607</v>
       </c>
       <c r="AO39" s="11">
-        <v>3428</v>
+        <v>1700</v>
       </c>
       <c r="AP39" s="11">
-        <v>1607</v>
+        <v>831</v>
       </c>
       <c r="AQ39" s="11">
-        <v>1700</v>
+        <v>1011</v>
       </c>
       <c r="AR39" s="11">
-        <v>831</v>
+        <v>323</v>
       </c>
       <c r="AS39" s="11">
-        <v>1011</v>
+        <v>98</v>
       </c>
       <c r="AT39" s="11">
-        <v>323</v>
+        <v>1507</v>
       </c>
       <c r="AU39" s="11">
-        <v>98</v>
+        <v>1876</v>
       </c>
       <c r="AV39" s="11">
-        <v>1507</v>
+        <v>1885</v>
       </c>
       <c r="AW39" s="11">
-        <v>1876</v>
+        <v>1326</v>
       </c>
       <c r="AX39" s="11">
-        <v>1885</v>
+        <v>1706</v>
       </c>
       <c r="AY39" s="11">
-        <v>1326</v>
+        <v>1845</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1706</v>
+        <v>2418</v>
       </c>
       <c r="BA39" s="11">
-        <v>1845</v>
+        <v>2008</v>
       </c>
       <c r="BB39" s="11">
-        <v>2418</v>
+        <v>2094</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5401,11 +5401,11 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0</v>
       </c>
       <c r="Y40" s="13">
         <v>0</v>
@@ -5423,19 +5423,19 @@
         <v>0</v>
       </c>
       <c r="AD40" s="13">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="AE40" s="13">
         <v>0</v>
       </c>
       <c r="AF40" s="13">
-        <v>840</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" s="13" t="s">
         <v>58</v>
@@ -5446,14 +5446,14 @@
       <c r="AK40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL40" s="13" t="s">
-        <v>58</v>
+      <c r="AL40" s="13">
+        <v>0</v>
       </c>
       <c r="AM40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN40" s="13">
-        <v>0</v>
+      <c r="AN40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO40" s="13" t="s">
         <v>58</v>
@@ -5461,20 +5461,20 @@
       <c r="AP40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>58</v>
+      <c r="AQ40" s="13">
+        <v>27</v>
       </c>
       <c r="AR40" s="13">
         <v>0</v>
       </c>
       <c r="AS40" s="13">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="13">
         <v>0</v>
       </c>
       <c r="AU40" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="13">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
@@ -5560,104 +5560,104 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>9458</v>
+      </c>
+      <c r="X41" s="11">
+        <v>1290</v>
       </c>
       <c r="Y41" s="11">
-        <v>9458</v>
+        <v>214</v>
       </c>
       <c r="Z41" s="11">
-        <v>1290</v>
+        <v>9551</v>
       </c>
       <c r="AA41" s="11">
-        <v>214</v>
+        <v>8364</v>
       </c>
       <c r="AB41" s="11">
-        <v>9551</v>
+        <v>8495</v>
       </c>
       <c r="AC41" s="11">
-        <v>8364</v>
+        <v>10206</v>
       </c>
       <c r="AD41" s="11">
-        <v>8495</v>
+        <v>4207</v>
       </c>
       <c r="AE41" s="11">
-        <v>10206</v>
+        <v>225</v>
       </c>
       <c r="AF41" s="11">
-        <v>4207</v>
+        <v>34</v>
       </c>
       <c r="AG41" s="11">
-        <v>225</v>
+        <v>3532</v>
       </c>
       <c r="AH41" s="11">
-        <v>34</v>
+        <v>2265</v>
       </c>
       <c r="AI41" s="11">
-        <v>3532</v>
+        <v>7358</v>
       </c>
       <c r="AJ41" s="11">
-        <v>2265</v>
+        <v>2371</v>
       </c>
       <c r="AK41" s="11">
-        <v>7358</v>
+        <v>7817</v>
       </c>
       <c r="AL41" s="11">
-        <v>2371</v>
+        <v>9186</v>
       </c>
       <c r="AM41" s="11">
-        <v>7817</v>
+        <v>9120</v>
       </c>
       <c r="AN41" s="11">
-        <v>9186</v>
+        <v>11262</v>
       </c>
       <c r="AO41" s="11">
-        <v>9120</v>
+        <v>14523</v>
       </c>
       <c r="AP41" s="11">
-        <v>11262</v>
+        <v>965</v>
       </c>
       <c r="AQ41" s="11">
-        <v>14523</v>
+        <v>252</v>
       </c>
       <c r="AR41" s="11">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="11">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="AT41" s="11">
-        <v>0</v>
+        <v>5109</v>
       </c>
       <c r="AU41" s="11">
-        <v>46</v>
+        <v>3184</v>
       </c>
       <c r="AV41" s="11">
-        <v>5109</v>
+        <v>3025</v>
       </c>
       <c r="AW41" s="11">
-        <v>3184</v>
+        <v>1983</v>
       </c>
       <c r="AX41" s="11">
-        <v>3025</v>
+        <v>10560</v>
       </c>
       <c r="AY41" s="11">
-        <v>1983</v>
+        <v>7519</v>
       </c>
       <c r="AZ41" s="11">
-        <v>10560</v>
+        <v>3538</v>
       </c>
       <c r="BA41" s="11">
-        <v>7519</v>
+        <v>13980</v>
       </c>
       <c r="BB41" s="11">
-        <v>3538</v>
+        <v>10468</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5734,14 +5734,14 @@
       <c r="AA42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC42" s="13" t="s">
-        <v>58</v>
+      <c r="AB42" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>0</v>
       </c>
       <c r="AD42" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13">
         <v>0</v>
@@ -5749,11 +5749,11 @@
       <c r="AF42" s="13">
         <v>0</v>
       </c>
-      <c r="AG42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+      <c r="AG42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>58</v>
@@ -5764,14 +5764,14 @@
       <c r="AK42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL42" s="13" t="s">
-        <v>58</v>
+      <c r="AL42" s="13">
+        <v>0</v>
       </c>
       <c r="AM42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN42" s="13">
-        <v>0</v>
+      <c r="AN42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO42" s="13" t="s">
         <v>58</v>
@@ -5779,8 +5779,8 @@
       <c r="AP42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ42" s="13" t="s">
-        <v>58</v>
+      <c r="AQ42" s="13">
+        <v>0</v>
       </c>
       <c r="AR42" s="13">
         <v>0</v>
@@ -5813,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="BB42" s="13">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5923,14 +5923,14 @@
       <c r="AK43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL43" s="11" t="s">
-        <v>58</v>
+      <c r="AL43" s="11">
+        <v>0</v>
       </c>
       <c r="AM43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN43" s="11">
-        <v>0</v>
+      <c r="AN43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO43" s="11" t="s">
         <v>58</v>
@@ -5938,14 +5938,14 @@
       <c r="AP43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>0</v>
+      <c r="AQ43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT43" s="11" t="s">
         <v>58</v>
@@ -5975,7 +5975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
@@ -6082,14 +6082,14 @@
       <c r="AK44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL44" s="13" t="s">
-        <v>58</v>
+      <c r="AL44" s="13">
+        <v>0</v>
       </c>
       <c r="AM44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN44" s="13">
-        <v>0</v>
+      <c r="AN44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO44" s="13" t="s">
         <v>58</v>
@@ -6097,14 +6097,14 @@
       <c r="AP44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="13">
-        <v>0</v>
+      <c r="AQ44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>58</v>
@@ -6134,7 +6134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
@@ -6241,14 +6241,14 @@
       <c r="AK45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL45" s="11" t="s">
-        <v>58</v>
+      <c r="AL45" s="11">
+        <v>0</v>
       </c>
       <c r="AM45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN45" s="11">
-        <v>0</v>
+      <c r="AN45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO45" s="11" t="s">
         <v>58</v>
@@ -6256,14 +6256,14 @@
       <c r="AP45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>0</v>
+      <c r="AQ45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>58</v>
@@ -6293,7 +6293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>67</v>
       </c>
@@ -6355,92 +6355,92 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>39</v>
+      </c>
+      <c r="X46" s="13">
+        <v>1236</v>
       </c>
       <c r="Y46" s="13">
-        <v>39</v>
+        <v>696</v>
       </c>
       <c r="Z46" s="13">
-        <v>1236</v>
+        <v>545</v>
       </c>
       <c r="AA46" s="13">
-        <v>696</v>
+        <v>166</v>
       </c>
       <c r="AB46" s="13">
-        <v>545</v>
+        <v>190</v>
       </c>
       <c r="AC46" s="13">
-        <v>166</v>
+        <v>1572</v>
       </c>
       <c r="AD46" s="13">
-        <v>190</v>
+        <v>2747</v>
       </c>
       <c r="AE46" s="13">
-        <v>1572</v>
+        <v>1421</v>
       </c>
       <c r="AF46" s="13">
-        <v>2747</v>
+        <v>215</v>
       </c>
       <c r="AG46" s="13">
-        <v>1421</v>
+        <v>164</v>
       </c>
       <c r="AH46" s="13">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="AI46" s="13">
-        <v>164</v>
+        <v>1074</v>
       </c>
       <c r="AJ46" s="13">
-        <v>297</v>
+        <v>883</v>
       </c>
       <c r="AK46" s="13">
-        <v>1074</v>
+        <v>1019</v>
       </c>
       <c r="AL46" s="13">
-        <v>883</v>
-      </c>
-      <c r="AM46" s="13">
-        <v>1019</v>
+        <v>1</v>
+      </c>
+      <c r="AM46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN46" s="13">
+        <v>85</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>875</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>1821</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>4289</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="13">
         <v>1</v>
       </c>
-      <c r="AO46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP46" s="13">
-        <v>85</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>875</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>1821</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>4289</v>
-      </c>
       <c r="AT46" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU46" s="13">
-        <v>1</v>
+        <v>621</v>
       </c>
       <c r="AV46" s="13">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="AW46" s="13">
-        <v>621</v>
+        <v>1294</v>
       </c>
       <c r="AX46" s="13">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="13">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="13">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="BB46" s="13">
-        <v>0</v>
+        <v>7211</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
@@ -6538,14 +6538,14 @@
       <c r="AD47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE47" s="11" t="s">
-        <v>58</v>
+      <c r="AE47" s="11">
+        <v>0</v>
       </c>
       <c r="AF47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG47" s="11">
-        <v>0</v>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>58</v>
@@ -6611,7 +6611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
@@ -6700,23 +6700,23 @@
       <c r="AE48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>58</v>
+      <c r="AF48" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>16</v>
       </c>
       <c r="AH48" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>326</v>
+      </c>
+      <c r="AJ48" s="13">
         <v>3</v>
       </c>
-      <c r="AI48" s="13">
-        <v>16</v>
-      </c>
-      <c r="AJ48" s="13">
-        <v>4</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>326</v>
+      <c r="AK48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL48" s="13">
         <v>3</v>
@@ -6725,16 +6725,16 @@
         <v>58</v>
       </c>
       <c r="AN48" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP48" s="13">
         <v>613</v>
       </c>
+      <c r="AO48" s="13">
+        <v>120</v>
+      </c>
+      <c r="AP48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ48" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="13">
         <v>0</v>
@@ -6749,28 +6749,28 @@
         <v>0</v>
       </c>
       <c r="AV48" s="13">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="AW48" s="13">
         <v>0</v>
       </c>
       <c r="AX48" s="13">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="13">
         <v>0</v>
       </c>
       <c r="AZ48" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA48" s="13">
         <v>0</v>
       </c>
       <c r="BB48" s="13">
-        <v>100</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>80</v>
       </c>
@@ -6831,103 +6831,103 @@
         <v>0</v>
       </c>
       <c r="W49" s="15">
-        <v>0</v>
+        <v>12146</v>
       </c>
       <c r="X49" s="15">
-        <v>0</v>
+        <v>5428</v>
       </c>
       <c r="Y49" s="15">
-        <v>12146</v>
+        <v>2932</v>
       </c>
       <c r="Z49" s="15">
-        <v>5428</v>
+        <v>12853</v>
       </c>
       <c r="AA49" s="15">
-        <v>2932</v>
+        <v>16707</v>
       </c>
       <c r="AB49" s="15">
-        <v>12853</v>
+        <v>15416</v>
       </c>
       <c r="AC49" s="15">
-        <v>16707</v>
+        <v>14829</v>
       </c>
       <c r="AD49" s="15">
-        <v>15416</v>
+        <v>8832</v>
       </c>
       <c r="AE49" s="15">
-        <v>14829</v>
+        <v>2312</v>
       </c>
       <c r="AF49" s="15">
-        <v>8832</v>
+        <v>296</v>
       </c>
       <c r="AG49" s="15">
-        <v>2312</v>
+        <v>6458</v>
       </c>
       <c r="AH49" s="15">
-        <v>296</v>
+        <v>7362</v>
       </c>
       <c r="AI49" s="15">
-        <v>6458</v>
+        <v>15377</v>
       </c>
       <c r="AJ49" s="15">
-        <v>7362</v>
+        <v>6705</v>
       </c>
       <c r="AK49" s="15">
-        <v>15377</v>
+        <v>10285</v>
       </c>
       <c r="AL49" s="15">
-        <v>6705</v>
+        <v>13777</v>
       </c>
       <c r="AM49" s="15">
-        <v>10285</v>
+        <v>19044</v>
       </c>
       <c r="AN49" s="15">
-        <v>13777</v>
+        <v>21735</v>
       </c>
       <c r="AO49" s="15">
-        <v>19044</v>
+        <v>23149</v>
       </c>
       <c r="AP49" s="15">
-        <v>21735</v>
+        <v>6603</v>
       </c>
       <c r="AQ49" s="15">
-        <v>23149</v>
+        <v>5840</v>
       </c>
       <c r="AR49" s="15">
-        <v>6504</v>
+        <v>326</v>
       </c>
       <c r="AS49" s="15">
-        <v>5840</v>
+        <v>1411</v>
       </c>
       <c r="AT49" s="15">
-        <v>326</v>
+        <v>9794</v>
       </c>
       <c r="AU49" s="15">
-        <v>1411</v>
+        <v>7940</v>
       </c>
       <c r="AV49" s="15">
-        <v>9794</v>
+        <v>7605</v>
       </c>
       <c r="AW49" s="15">
-        <v>7940</v>
+        <v>4603</v>
       </c>
       <c r="AX49" s="15">
-        <v>6337</v>
+        <v>13936</v>
       </c>
       <c r="AY49" s="15">
-        <v>4603</v>
+        <v>14900</v>
       </c>
       <c r="AZ49" s="15">
-        <v>13936</v>
+        <v>14315</v>
       </c>
       <c r="BA49" s="15">
-        <v>14900</v>
+        <v>16420</v>
       </c>
       <c r="BB49" s="15">
-        <v>14315</v>
+        <v>21459</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>81</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>72</v>
       </c>
@@ -7073,14 +7073,14 @@
       <c r="AE51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF51" s="11" t="s">
-        <v>58</v>
+      <c r="AF51" s="11">
+        <v>0</v>
       </c>
       <c r="AG51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH51" s="11">
-        <v>0</v>
+      <c r="AH51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI51" s="11" t="s">
         <v>58</v>
@@ -7143,7 +7143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>82</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>74</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>75</v>
       </c>
@@ -7419,104 +7419,104 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>2076</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
       </c>
       <c r="Y54" s="11">
-        <v>2076</v>
+        <v>7010</v>
       </c>
       <c r="Z54" s="11">
-        <v>0</v>
+        <v>6676</v>
       </c>
       <c r="AA54" s="11">
-        <v>7010</v>
+        <v>1878</v>
       </c>
       <c r="AB54" s="11">
-        <v>6676</v>
+        <v>8293</v>
       </c>
       <c r="AC54" s="11">
-        <v>1878</v>
+        <v>13186</v>
       </c>
       <c r="AD54" s="11">
-        <v>8293</v>
+        <v>8970</v>
       </c>
       <c r="AE54" s="11">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="11">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="11">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AH54" s="11">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="AI54" s="11">
-        <v>10947</v>
+        <v>13197</v>
       </c>
       <c r="AJ54" s="11">
-        <v>7618</v>
+        <v>17235</v>
       </c>
       <c r="AK54" s="11">
-        <v>13197</v>
+        <v>1690</v>
       </c>
       <c r="AL54" s="11">
-        <v>17235</v>
+        <v>6307</v>
       </c>
       <c r="AM54" s="11">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="AN54" s="11">
-        <v>6307</v>
+        <v>4422</v>
       </c>
       <c r="AO54" s="11">
-        <v>1678</v>
+        <v>10538</v>
       </c>
       <c r="AP54" s="11">
-        <v>4422</v>
-      </c>
-      <c r="AQ54" s="11">
-        <v>10538</v>
-      </c>
-      <c r="AR54" s="11">
         <v>10082</v>
       </c>
-      <c r="AS54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT54" s="11" t="s">
-        <v>58</v>
+      <c r="AQ54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS54" s="11">
+        <v>230</v>
+      </c>
+      <c r="AT54" s="11">
+        <v>5245</v>
       </c>
       <c r="AU54" s="11">
-        <v>230</v>
+        <v>11469</v>
       </c>
       <c r="AV54" s="11">
-        <v>5245</v>
-      </c>
-      <c r="AW54" s="11">
-        <v>11469</v>
+        <v>18259</v>
+      </c>
+      <c r="AW54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX54" s="11">
-        <v>18259</v>
-      </c>
-      <c r="AY54" s="11" t="s">
-        <v>58</v>
+        <v>1255</v>
+      </c>
+      <c r="AY54" s="11">
+        <v>1342</v>
       </c>
       <c r="AZ54" s="11">
-        <v>1255</v>
+        <v>2646</v>
       </c>
       <c r="BA54" s="11">
-        <v>1342</v>
+        <v>6857</v>
       </c>
       <c r="BB54" s="11">
-        <v>2646</v>
+        <v>14455</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -7576,104 +7576,104 @@
       <c r="V55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>58</v>
+      <c r="W55" s="17">
+        <v>2076</v>
+      </c>
+      <c r="X55" s="17">
+        <v>0</v>
       </c>
       <c r="Y55" s="17">
-        <v>2076</v>
+        <v>7010</v>
       </c>
       <c r="Z55" s="17">
-        <v>0</v>
+        <v>6676</v>
       </c>
       <c r="AA55" s="17">
-        <v>7010</v>
+        <v>1878</v>
       </c>
       <c r="AB55" s="17">
-        <v>6676</v>
+        <v>8293</v>
       </c>
       <c r="AC55" s="17">
-        <v>1878</v>
+        <v>13186</v>
       </c>
       <c r="AD55" s="17">
-        <v>8293</v>
+        <v>8970</v>
       </c>
       <c r="AE55" s="17">
-        <v>13186</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="17">
-        <v>8970</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="17">
-        <v>0</v>
+        <v>10947</v>
       </c>
       <c r="AH55" s="17">
-        <v>0</v>
+        <v>7618</v>
       </c>
       <c r="AI55" s="17">
-        <v>10947</v>
+        <v>13197</v>
       </c>
       <c r="AJ55" s="17">
-        <v>7618</v>
+        <v>17235</v>
       </c>
       <c r="AK55" s="17">
-        <v>13197</v>
+        <v>1690</v>
       </c>
       <c r="AL55" s="17">
-        <v>17235</v>
+        <v>6307</v>
       </c>
       <c r="AM55" s="17">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="AN55" s="17">
-        <v>6307</v>
+        <v>4422</v>
       </c>
       <c r="AO55" s="17">
-        <v>1678</v>
+        <v>10538</v>
       </c>
       <c r="AP55" s="17">
-        <v>4422</v>
+        <v>10082</v>
       </c>
       <c r="AQ55" s="17">
-        <v>10538</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="17">
-        <v>10082</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="17">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AT55" s="17">
-        <v>0</v>
+        <v>5245</v>
       </c>
       <c r="AU55" s="17">
-        <v>230</v>
+        <v>11469</v>
       </c>
       <c r="AV55" s="17">
-        <v>5245</v>
+        <v>18259</v>
       </c>
       <c r="AW55" s="17">
-        <v>11469</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="17">
-        <v>18259</v>
+        <v>1255</v>
       </c>
       <c r="AY55" s="17">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="AZ55" s="17">
-        <v>1255</v>
+        <v>2646</v>
       </c>
       <c r="BA55" s="17">
-        <v>1342</v>
+        <v>6857</v>
       </c>
       <c r="BB55" s="17">
-        <v>2646</v>
+        <v>14455</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>83</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="BA56" s="19"/>
       <c r="BB56" s="19"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>84</v>
       </c>
@@ -7790,11 +7790,11 @@
       <c r="V57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>58</v>
+      <c r="W57" s="15">
+        <v>0</v>
+      </c>
+      <c r="X57" s="15">
+        <v>0</v>
       </c>
       <c r="Y57" s="15">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>77</v>
       </c>
@@ -7948,103 +7948,103 @@
         <v>0</v>
       </c>
       <c r="W58" s="17">
-        <v>0</v>
+        <v>14222</v>
       </c>
       <c r="X58" s="17">
-        <v>0</v>
+        <v>5428</v>
       </c>
       <c r="Y58" s="17">
-        <v>14222</v>
+        <v>9942</v>
       </c>
       <c r="Z58" s="17">
-        <v>5428</v>
+        <v>19529</v>
       </c>
       <c r="AA58" s="17">
-        <v>9942</v>
+        <v>18585</v>
       </c>
       <c r="AB58" s="17">
-        <v>19529</v>
+        <v>23709</v>
       </c>
       <c r="AC58" s="17">
-        <v>18585</v>
+        <v>28015</v>
       </c>
       <c r="AD58" s="17">
-        <v>23709</v>
+        <v>17802</v>
       </c>
       <c r="AE58" s="17">
-        <v>28015</v>
+        <v>2312</v>
       </c>
       <c r="AF58" s="17">
-        <v>17802</v>
+        <v>296</v>
       </c>
       <c r="AG58" s="17">
-        <v>2312</v>
+        <v>17405</v>
       </c>
       <c r="AH58" s="17">
-        <v>296</v>
+        <v>14980</v>
       </c>
       <c r="AI58" s="17">
-        <v>17405</v>
+        <v>28574</v>
       </c>
       <c r="AJ58" s="17">
-        <v>14980</v>
+        <v>23940</v>
       </c>
       <c r="AK58" s="17">
-        <v>28574</v>
+        <v>11975</v>
       </c>
       <c r="AL58" s="17">
-        <v>23940</v>
+        <v>20084</v>
       </c>
       <c r="AM58" s="17">
-        <v>11975</v>
+        <v>20722</v>
       </c>
       <c r="AN58" s="17">
-        <v>20084</v>
+        <v>26157</v>
       </c>
       <c r="AO58" s="17">
-        <v>20722</v>
+        <v>33687</v>
       </c>
       <c r="AP58" s="17">
-        <v>26157</v>
+        <v>16685</v>
       </c>
       <c r="AQ58" s="17">
-        <v>33687</v>
+        <v>5840</v>
       </c>
       <c r="AR58" s="17">
-        <v>16586</v>
+        <v>326</v>
       </c>
       <c r="AS58" s="17">
-        <v>5840</v>
+        <v>1641</v>
       </c>
       <c r="AT58" s="17">
-        <v>326</v>
+        <v>15039</v>
       </c>
       <c r="AU58" s="17">
-        <v>1641</v>
+        <v>19409</v>
       </c>
       <c r="AV58" s="17">
-        <v>15039</v>
+        <v>25864</v>
       </c>
       <c r="AW58" s="17">
-        <v>19409</v>
+        <v>4603</v>
       </c>
       <c r="AX58" s="17">
-        <v>24596</v>
+        <v>15191</v>
       </c>
       <c r="AY58" s="17">
-        <v>4603</v>
+        <v>16242</v>
       </c>
       <c r="AZ58" s="17">
-        <v>15191</v>
+        <v>16961</v>
       </c>
       <c r="BA58" s="17">
-        <v>16242</v>
+        <v>23277</v>
       </c>
       <c r="BB58" s="17">
-        <v>16961</v>
+        <v>35914</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8099,7 +8099,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8154,7 +8154,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8209,7 +8209,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>85</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8421,7 +8421,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>86</v>
       </c>
@@ -8478,7 +8478,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8570,50 +8570,50 @@
       <c r="AF65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH65" s="11" t="s">
-        <v>58</v>
+      <c r="AG65" s="11">
+        <v>2693</v>
+      </c>
+      <c r="AH65" s="11">
+        <v>9989</v>
       </c>
       <c r="AI65" s="11">
+        <v>5693</v>
+      </c>
+      <c r="AJ65" s="11">
         <v>2693</v>
       </c>
-      <c r="AJ65" s="11">
-        <v>9989</v>
-      </c>
       <c r="AK65" s="11">
-        <v>5693</v>
+        <v>1194</v>
       </c>
       <c r="AL65" s="11">
-        <v>2693</v>
+        <v>17149</v>
       </c>
       <c r="AM65" s="11">
-        <v>1194</v>
+        <v>21718</v>
       </c>
       <c r="AN65" s="11">
-        <v>17149</v>
+        <v>29949</v>
       </c>
       <c r="AO65" s="11">
-        <v>21718</v>
+        <v>19778</v>
       </c>
       <c r="AP65" s="11">
-        <v>29949</v>
-      </c>
-      <c r="AQ65" s="11">
-        <v>19778</v>
+        <v>1013</v>
+      </c>
+      <c r="AQ65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS65" s="11" t="s">
-        <v>58</v>
+      <c r="AS65" s="11">
+        <v>11342</v>
       </c>
       <c r="AT65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU65" s="11">
-        <v>11342</v>
+      <c r="AU65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV65" s="11" t="s">
         <v>58</v>
@@ -8637,7 +8637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8699,104 +8699,104 @@
       <c r="V66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="W66" s="13">
+        <v>50266</v>
+      </c>
+      <c r="X66" s="13">
+        <v>52177</v>
       </c>
       <c r="Y66" s="13">
-        <v>50266</v>
+        <v>50452</v>
       </c>
       <c r="Z66" s="13">
-        <v>52177</v>
+        <v>56896</v>
       </c>
       <c r="AA66" s="13">
-        <v>50452</v>
+        <v>182991</v>
       </c>
       <c r="AB66" s="13">
-        <v>56896</v>
+        <v>145463</v>
       </c>
       <c r="AC66" s="13">
-        <v>182991</v>
+        <v>32396</v>
       </c>
       <c r="AD66" s="13">
-        <v>145463</v>
+        <v>1934</v>
       </c>
       <c r="AE66" s="13">
-        <v>32396</v>
+        <v>336</v>
       </c>
       <c r="AF66" s="13">
-        <v>1934</v>
+        <v>79</v>
       </c>
       <c r="AG66" s="13">
-        <v>336</v>
+        <v>79781</v>
       </c>
       <c r="AH66" s="13">
-        <v>79</v>
+        <v>107061</v>
       </c>
       <c r="AI66" s="13">
-        <v>79781</v>
+        <v>151197</v>
       </c>
       <c r="AJ66" s="13">
-        <v>107061</v>
+        <v>25440</v>
       </c>
       <c r="AK66" s="13">
-        <v>151197</v>
+        <v>7509</v>
       </c>
       <c r="AL66" s="13">
-        <v>25440</v>
+        <v>64340</v>
       </c>
       <c r="AM66" s="13">
-        <v>7509</v>
+        <v>190961</v>
       </c>
       <c r="AN66" s="13">
-        <v>64340</v>
+        <v>236074</v>
       </c>
       <c r="AO66" s="13">
-        <v>190961</v>
+        <v>193434</v>
       </c>
       <c r="AP66" s="13">
-        <v>236074</v>
+        <v>150143</v>
       </c>
       <c r="AQ66" s="13">
-        <v>193434</v>
+        <v>13636</v>
       </c>
       <c r="AR66" s="13">
-        <v>150143</v>
+        <v>156</v>
       </c>
       <c r="AS66" s="13">
-        <v>13636</v>
+        <v>14421</v>
       </c>
       <c r="AT66" s="13">
-        <v>156</v>
+        <v>250579</v>
       </c>
       <c r="AU66" s="13">
-        <v>14421</v>
+        <v>187481</v>
       </c>
       <c r="AV66" s="13">
-        <v>250579</v>
+        <v>27650</v>
       </c>
       <c r="AW66" s="13">
-        <v>187481</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="13">
-        <v>27650</v>
+        <v>141984</v>
       </c>
       <c r="AY66" s="13">
-        <v>0</v>
+        <v>470489</v>
       </c>
       <c r="AZ66" s="13">
-        <v>141984</v>
+        <v>702021</v>
       </c>
       <c r="BA66" s="13">
-        <v>470489</v>
+        <v>36748</v>
       </c>
       <c r="BB66" s="13">
-        <v>702021</v>
+        <v>78380</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8858,104 +8858,104 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>22457</v>
+      </c>
+      <c r="X67" s="11">
+        <v>27047</v>
       </c>
       <c r="Y67" s="11">
-        <v>22457</v>
+        <v>5741</v>
       </c>
       <c r="Z67" s="11">
-        <v>27047</v>
+        <v>18367</v>
       </c>
       <c r="AA67" s="11">
-        <v>5741</v>
+        <v>53117</v>
       </c>
       <c r="AB67" s="11">
-        <v>18367</v>
+        <v>55129</v>
       </c>
       <c r="AC67" s="11">
-        <v>53117</v>
+        <v>61475</v>
       </c>
       <c r="AD67" s="11">
-        <v>55129</v>
+        <v>30465</v>
       </c>
       <c r="AE67" s="11">
-        <v>61475</v>
+        <v>21233</v>
       </c>
       <c r="AF67" s="11">
-        <v>30465</v>
+        <v>1381</v>
       </c>
       <c r="AG67" s="11">
-        <v>21233</v>
+        <v>13305</v>
       </c>
       <c r="AH67" s="11">
-        <v>1381</v>
+        <v>50903</v>
       </c>
       <c r="AI67" s="11">
-        <v>13305</v>
+        <v>89627</v>
       </c>
       <c r="AJ67" s="11">
-        <v>50903</v>
+        <v>78725</v>
       </c>
       <c r="AK67" s="11">
-        <v>89627</v>
+        <v>40157</v>
       </c>
       <c r="AL67" s="11">
-        <v>78725</v>
+        <v>31079</v>
       </c>
       <c r="AM67" s="11">
-        <v>40157</v>
+        <v>114048</v>
       </c>
       <c r="AN67" s="11">
-        <v>31079</v>
+        <v>51454</v>
       </c>
       <c r="AO67" s="11">
-        <v>114048</v>
+        <v>56038</v>
       </c>
       <c r="AP67" s="11">
-        <v>51454</v>
+        <v>30704</v>
       </c>
       <c r="AQ67" s="11">
-        <v>56038</v>
+        <v>40155</v>
       </c>
       <c r="AR67" s="11">
-        <v>30704</v>
+        <v>16095</v>
       </c>
       <c r="AS67" s="11">
-        <v>40155</v>
+        <v>5201</v>
       </c>
       <c r="AT67" s="11">
-        <v>16095</v>
+        <v>82896</v>
       </c>
       <c r="AU67" s="11">
-        <v>5201</v>
+        <v>103319</v>
       </c>
       <c r="AV67" s="11">
-        <v>82896</v>
+        <v>103885</v>
       </c>
       <c r="AW67" s="11">
-        <v>103319</v>
+        <v>73942</v>
       </c>
       <c r="AX67" s="11">
-        <v>103885</v>
+        <v>96172</v>
       </c>
       <c r="AY67" s="11">
-        <v>73942</v>
+        <v>103721</v>
       </c>
       <c r="AZ67" s="11">
-        <v>96172</v>
+        <v>135885</v>
       </c>
       <c r="BA67" s="11">
-        <v>103721</v>
+        <v>112409</v>
       </c>
       <c r="BB67" s="11">
-        <v>135885</v>
+        <v>117470</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -9017,11 +9017,11 @@
       <c r="V68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="W68" s="13">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0</v>
       </c>
       <c r="Y68" s="13">
         <v>0</v>
@@ -9039,13 +9039,13 @@
         <v>0</v>
       </c>
       <c r="AD68" s="13">
-        <v>0</v>
+        <v>33980</v>
       </c>
       <c r="AE68" s="13">
         <v>0</v>
       </c>
       <c r="AF68" s="13">
-        <v>33980</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="13">
         <v>0</v>
@@ -9078,19 +9078,19 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="13">
-        <v>0</v>
+        <v>3405</v>
       </c>
       <c r="AR68" s="13">
         <v>0</v>
       </c>
       <c r="AS68" s="13">
-        <v>3405</v>
+        <v>70</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="13">
         <v>0</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9176,104 +9176,104 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>606128</v>
+      </c>
+      <c r="X69" s="11">
+        <v>81213</v>
       </c>
       <c r="Y69" s="11">
-        <v>606128</v>
+        <v>13271</v>
       </c>
       <c r="Z69" s="11">
-        <v>81213</v>
+        <v>611787</v>
       </c>
       <c r="AA69" s="11">
-        <v>13271</v>
+        <v>539366</v>
       </c>
       <c r="AB69" s="11">
-        <v>611787</v>
+        <v>570507</v>
       </c>
       <c r="AC69" s="11">
-        <v>539366</v>
+        <v>663193</v>
       </c>
       <c r="AD69" s="11">
-        <v>570507</v>
+        <v>264458</v>
       </c>
       <c r="AE69" s="11">
-        <v>663193</v>
+        <v>1684</v>
       </c>
       <c r="AF69" s="11">
-        <v>264458</v>
+        <v>2314</v>
       </c>
       <c r="AG69" s="11">
-        <v>1684</v>
+        <v>240514</v>
       </c>
       <c r="AH69" s="11">
-        <v>2314</v>
+        <v>259358</v>
       </c>
       <c r="AI69" s="11">
-        <v>240514</v>
+        <v>890212</v>
       </c>
       <c r="AJ69" s="11">
-        <v>259358</v>
+        <v>289045</v>
       </c>
       <c r="AK69" s="11">
-        <v>890212</v>
+        <v>977169</v>
       </c>
       <c r="AL69" s="11">
-        <v>289045</v>
+        <v>1153295</v>
       </c>
       <c r="AM69" s="11">
-        <v>977169</v>
+        <v>1147469</v>
       </c>
       <c r="AN69" s="11">
-        <v>1153295</v>
+        <v>1435950</v>
       </c>
       <c r="AO69" s="11">
-        <v>1147469</v>
+        <v>1846357</v>
       </c>
       <c r="AP69" s="11">
-        <v>1435950</v>
+        <v>125097</v>
       </c>
       <c r="AQ69" s="11">
-        <v>1846357</v>
+        <v>32839</v>
       </c>
       <c r="AR69" s="11">
-        <v>148597</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="11">
-        <v>32839</v>
+        <v>5970</v>
       </c>
       <c r="AT69" s="11">
-        <v>0</v>
+        <v>919568</v>
       </c>
       <c r="AU69" s="11">
-        <v>5970</v>
+        <v>573239</v>
       </c>
       <c r="AV69" s="11">
-        <v>919568</v>
+        <v>544401</v>
       </c>
       <c r="AW69" s="11">
-        <v>573239</v>
+        <v>356301</v>
       </c>
       <c r="AX69" s="11">
-        <v>576681</v>
+        <v>1870288</v>
       </c>
       <c r="AY69" s="11">
-        <v>356301</v>
+        <v>1328364</v>
       </c>
       <c r="AZ69" s="11">
-        <v>1870288</v>
+        <v>629506</v>
       </c>
       <c r="BA69" s="11">
-        <v>1328364</v>
+        <v>2479915</v>
       </c>
       <c r="BB69" s="11">
-        <v>629506</v>
+        <v>1884190</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9350,14 +9350,14 @@
       <c r="AA70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC70" s="13" t="s">
-        <v>58</v>
+      <c r="AB70" s="13">
+        <v>42</v>
+      </c>
+      <c r="AC70" s="13">
+        <v>0</v>
       </c>
       <c r="AD70" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="13">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="BB70" s="13">
-        <v>0</v>
+        <v>30223</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -9539,11 +9539,11 @@
       <c r="AK71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM71" s="11" t="s">
-        <v>58</v>
+      <c r="AL71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="11">
+        <v>0</v>
       </c>
       <c r="AN71" s="11">
         <v>0</v>
@@ -9557,11 +9557,11 @@
       <c r="AQ71" s="11">
         <v>0</v>
       </c>
-      <c r="AR71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS71" s="11">
-        <v>0</v>
+      <c r="AR71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT71" s="11" t="s">
         <v>58</v>
@@ -9591,7 +9591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>65</v>
       </c>
@@ -9698,11 +9698,11 @@
       <c r="AK72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM72" s="13" t="s">
-        <v>58</v>
+      <c r="AL72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="13">
+        <v>0</v>
       </c>
       <c r="AN72" s="13">
         <v>0</v>
@@ -9716,11 +9716,11 @@
       <c r="AQ72" s="13">
         <v>0</v>
       </c>
-      <c r="AR72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="13">
-        <v>0</v>
+      <c r="AR72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT72" s="13" t="s">
         <v>58</v>
@@ -9750,7 +9750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>66</v>
       </c>
@@ -9857,11 +9857,11 @@
       <c r="AK73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM73" s="11" t="s">
-        <v>58</v>
+      <c r="AL73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="11">
+        <v>0</v>
       </c>
       <c r="AN73" s="11">
         <v>0</v>
@@ -9875,11 +9875,11 @@
       <c r="AQ73" s="11">
         <v>0</v>
       </c>
-      <c r="AR73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>0</v>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT73" s="11" t="s">
         <v>58</v>
@@ -9909,7 +9909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>67</v>
       </c>
@@ -9971,92 +9971,92 @@
       <c r="V74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="W74" s="13">
+        <v>46</v>
+      </c>
+      <c r="X74" s="13">
+        <v>1238</v>
       </c>
       <c r="Y74" s="13">
-        <v>46</v>
+        <v>696</v>
       </c>
       <c r="Z74" s="13">
-        <v>1238</v>
+        <v>546</v>
       </c>
       <c r="AA74" s="13">
-        <v>696</v>
+        <v>167</v>
       </c>
       <c r="AB74" s="13">
-        <v>546</v>
+        <v>223</v>
       </c>
       <c r="AC74" s="13">
-        <v>167</v>
+        <v>1882</v>
       </c>
       <c r="AD74" s="13">
-        <v>223</v>
+        <v>3295</v>
       </c>
       <c r="AE74" s="13">
-        <v>1882</v>
+        <v>1705</v>
       </c>
       <c r="AF74" s="13">
-        <v>3295</v>
+        <v>258</v>
       </c>
       <c r="AG74" s="13">
-        <v>1705</v>
+        <v>196</v>
       </c>
       <c r="AH74" s="13">
-        <v>258</v>
+        <v>1896</v>
       </c>
       <c r="AI74" s="13">
-        <v>196</v>
+        <v>7435</v>
       </c>
       <c r="AJ74" s="13">
-        <v>1896</v>
+        <v>6182</v>
       </c>
       <c r="AK74" s="13">
-        <v>7435</v>
+        <v>6999</v>
       </c>
       <c r="AL74" s="13">
-        <v>6182</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="13">
-        <v>6999</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="13">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="AO74" s="13">
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="AP74" s="13">
-        <v>600</v>
+        <v>12752</v>
       </c>
       <c r="AQ74" s="13">
-        <v>6120</v>
+        <v>30020</v>
       </c>
       <c r="AR74" s="13">
-        <v>12752</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="13">
-        <v>30020</v>
+        <v>2</v>
       </c>
       <c r="AT74" s="13">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AU74" s="13">
-        <v>2</v>
+        <v>4966</v>
       </c>
       <c r="AV74" s="13">
-        <v>960</v>
+        <v>6480</v>
       </c>
       <c r="AW74" s="13">
-        <v>4966</v>
+        <v>10346</v>
       </c>
       <c r="AX74" s="13">
-        <v>6480</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="13">
-        <v>10346</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
@@ -10065,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="BB74" s="13">
-        <v>0</v>
+        <v>57694</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>68</v>
       </c>
@@ -10154,14 +10154,14 @@
       <c r="AD75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE75" s="11" t="s">
-        <v>58</v>
+      <c r="AE75" s="11">
+        <v>0</v>
       </c>
       <c r="AF75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG75" s="11">
-        <v>0</v>
+      <c r="AG75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH75" s="11" t="s">
         <v>58</v>
@@ -10227,7 +10227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>69</v>
       </c>
@@ -10316,41 +10316,41 @@
       <c r="AE76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>58</v>
+      <c r="AF76" s="13">
+        <v>23</v>
+      </c>
+      <c r="AG76" s="13">
+        <v>121</v>
       </c>
       <c r="AH76" s="13">
+        <v>27</v>
+      </c>
+      <c r="AI76" s="13">
+        <v>6450</v>
+      </c>
+      <c r="AJ76" s="13">
+        <v>26</v>
+      </c>
+      <c r="AK76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="13">
         <v>23</v>
       </c>
-      <c r="AI76" s="13">
-        <v>121</v>
-      </c>
-      <c r="AJ76" s="13">
-        <v>27</v>
-      </c>
-      <c r="AK76" s="13">
-        <v>6450</v>
-      </c>
-      <c r="AL76" s="13">
-        <v>26</v>
-      </c>
       <c r="AM76" s="13">
         <v>0</v>
       </c>
       <c r="AN76" s="13">
-        <v>23</v>
+        <v>12064</v>
       </c>
       <c r="AO76" s="13">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="AP76" s="13">
-        <v>12064</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="13">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="AR76" s="13">
         <v>0</v>
@@ -10365,28 +10365,28 @@
         <v>0</v>
       </c>
       <c r="AV76" s="13">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="AW76" s="13">
         <v>0</v>
       </c>
       <c r="AX76" s="13">
-        <v>6257</v>
+        <v>0</v>
       </c>
       <c r="AY76" s="13">
         <v>0</v>
       </c>
       <c r="AZ76" s="13">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="BA76" s="13">
         <v>0</v>
       </c>
       <c r="BB76" s="13">
-        <v>2200</v>
+        <v>13666</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>80</v>
       </c>
@@ -10447,103 +10447,103 @@
         <v>0</v>
       </c>
       <c r="W77" s="15">
-        <v>0</v>
+        <v>678897</v>
       </c>
       <c r="X77" s="15">
-        <v>0</v>
+        <v>161675</v>
       </c>
       <c r="Y77" s="15">
-        <v>678897</v>
+        <v>70160</v>
       </c>
       <c r="Z77" s="15">
-        <v>161675</v>
+        <v>687596</v>
       </c>
       <c r="AA77" s="15">
-        <v>70160</v>
+        <v>775641</v>
       </c>
       <c r="AB77" s="15">
-        <v>687596</v>
+        <v>771364</v>
       </c>
       <c r="AC77" s="15">
-        <v>775641</v>
+        <v>758946</v>
       </c>
       <c r="AD77" s="15">
-        <v>771364</v>
+        <v>334132</v>
       </c>
       <c r="AE77" s="15">
-        <v>758946</v>
+        <v>24958</v>
       </c>
       <c r="AF77" s="15">
-        <v>334132</v>
+        <v>4055</v>
       </c>
       <c r="AG77" s="15">
-        <v>24958</v>
+        <v>336610</v>
       </c>
       <c r="AH77" s="15">
-        <v>4055</v>
+        <v>429234</v>
       </c>
       <c r="AI77" s="15">
-        <v>336610</v>
+        <v>1150614</v>
       </c>
       <c r="AJ77" s="15">
-        <v>429234</v>
+        <v>402111</v>
       </c>
       <c r="AK77" s="15">
-        <v>1150614</v>
+        <v>1033028</v>
       </c>
       <c r="AL77" s="15">
-        <v>402111</v>
+        <v>1265887</v>
       </c>
       <c r="AM77" s="15">
-        <v>1033028</v>
+        <v>1474196</v>
       </c>
       <c r="AN77" s="15">
-        <v>1265887</v>
+        <v>1766091</v>
       </c>
       <c r="AO77" s="15">
-        <v>1474196</v>
+        <v>2124127</v>
       </c>
       <c r="AP77" s="15">
-        <v>1766091</v>
+        <v>319709</v>
       </c>
       <c r="AQ77" s="15">
-        <v>2124127</v>
+        <v>120055</v>
       </c>
       <c r="AR77" s="15">
-        <v>342196</v>
+        <v>16251</v>
       </c>
       <c r="AS77" s="15">
-        <v>120055</v>
+        <v>37006</v>
       </c>
       <c r="AT77" s="15">
-        <v>16251</v>
+        <v>1254003</v>
       </c>
       <c r="AU77" s="15">
-        <v>37006</v>
+        <v>869005</v>
       </c>
       <c r="AV77" s="15">
-        <v>1254003</v>
+        <v>688673</v>
       </c>
       <c r="AW77" s="15">
-        <v>869005</v>
+        <v>440589</v>
       </c>
       <c r="AX77" s="15">
-        <v>720953</v>
+        <v>2108444</v>
       </c>
       <c r="AY77" s="15">
-        <v>440589</v>
+        <v>1902574</v>
       </c>
       <c r="AZ77" s="15">
-        <v>2108444</v>
+        <v>1469612</v>
       </c>
       <c r="BA77" s="15">
-        <v>1902574</v>
+        <v>2629072</v>
       </c>
       <c r="BB77" s="15">
-        <v>1469612</v>
+        <v>2181623</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>88</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>72</v>
       </c>
@@ -10689,11 +10689,11 @@
       <c r="AE79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG79" s="11" t="s">
-        <v>58</v>
+      <c r="AF79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="11">
+        <v>0</v>
       </c>
       <c r="AH79" s="11">
         <v>0</v>
@@ -10704,11 +10704,11 @@
       <c r="AJ79" s="11">
         <v>0</v>
       </c>
-      <c r="AK79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="11">
-        <v>0</v>
+      <c r="AK79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM79" s="11" t="s">
         <v>58</v>
@@ -10759,7 +10759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
         <v>82</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>89</v>
       </c>
@@ -10973,7 +10973,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>75</v>
       </c>
@@ -11035,104 +11035,104 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>5515</v>
+      </c>
+      <c r="X82" s="11">
+        <v>0</v>
       </c>
       <c r="Y82" s="11">
-        <v>5515</v>
+        <v>15211</v>
       </c>
       <c r="Z82" s="11">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="AA82" s="11">
-        <v>15211</v>
+        <v>4076</v>
       </c>
       <c r="AB82" s="11">
-        <v>14487</v>
+        <v>18000</v>
       </c>
       <c r="AC82" s="11">
-        <v>4076</v>
+        <v>28613</v>
       </c>
       <c r="AD82" s="11">
-        <v>18000</v>
+        <v>19466</v>
       </c>
       <c r="AE82" s="11">
-        <v>28613</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="11">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="11">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AH82" s="11">
-        <v>0</v>
+        <v>30141</v>
       </c>
       <c r="AI82" s="11">
-        <v>36155</v>
+        <v>52685</v>
       </c>
       <c r="AJ82" s="11">
-        <v>30141</v>
+        <v>62501</v>
       </c>
       <c r="AK82" s="11">
-        <v>52685</v>
+        <v>5999</v>
       </c>
       <c r="AL82" s="11">
-        <v>62501</v>
+        <v>25228</v>
       </c>
       <c r="AM82" s="11">
-        <v>5999</v>
+        <v>6712</v>
       </c>
       <c r="AN82" s="11">
-        <v>25228</v>
+        <v>17688</v>
       </c>
       <c r="AO82" s="11">
-        <v>6712</v>
+        <v>42178</v>
       </c>
       <c r="AP82" s="11">
-        <v>17688</v>
+        <v>40330</v>
       </c>
       <c r="AQ82" s="11">
-        <v>42178</v>
-      </c>
-      <c r="AR82" s="11">
-        <v>40330</v>
+        <v>0</v>
+      </c>
+      <c r="AR82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT82" s="11" t="s">
-        <v>58</v>
+        <v>1500</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>32323</v>
       </c>
       <c r="AU82" s="11">
-        <v>1500</v>
+        <v>71050</v>
       </c>
       <c r="AV82" s="11">
-        <v>32323</v>
+        <v>139562</v>
       </c>
       <c r="AW82" s="11">
-        <v>71050</v>
+        <v>0</v>
       </c>
       <c r="AX82" s="11">
-        <v>139562</v>
+        <v>10417</v>
       </c>
       <c r="AY82" s="11">
-        <v>0</v>
+        <v>10834</v>
       </c>
       <c r="AZ82" s="11">
-        <v>10417</v>
+        <v>22162</v>
       </c>
       <c r="BA82" s="11">
-        <v>10834</v>
+        <v>55550</v>
       </c>
       <c r="BB82" s="11">
-        <v>22162</v>
+        <v>109315</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>76</v>
       </c>
@@ -11194,104 +11194,104 @@
       <c r="V83" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>58</v>
+      <c r="W83" s="17">
+        <v>5515</v>
+      </c>
+      <c r="X83" s="17">
+        <v>0</v>
       </c>
       <c r="Y83" s="17">
-        <v>5515</v>
+        <v>15211</v>
       </c>
       <c r="Z83" s="17">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="AA83" s="17">
-        <v>15211</v>
+        <v>4076</v>
       </c>
       <c r="AB83" s="17">
-        <v>14487</v>
+        <v>18000</v>
       </c>
       <c r="AC83" s="17">
-        <v>4076</v>
+        <v>28613</v>
       </c>
       <c r="AD83" s="17">
-        <v>18000</v>
+        <v>19466</v>
       </c>
       <c r="AE83" s="17">
-        <v>28613</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="17">
-        <v>19466</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="17">
-        <v>0</v>
+        <v>36155</v>
       </c>
       <c r="AH83" s="17">
-        <v>0</v>
+        <v>30141</v>
       </c>
       <c r="AI83" s="17">
-        <v>36155</v>
+        <v>52685</v>
       </c>
       <c r="AJ83" s="17">
-        <v>30141</v>
+        <v>62501</v>
       </c>
       <c r="AK83" s="17">
-        <v>52685</v>
+        <v>5999</v>
       </c>
       <c r="AL83" s="17">
-        <v>62501</v>
+        <v>25228</v>
       </c>
       <c r="AM83" s="17">
-        <v>5999</v>
+        <v>6712</v>
       </c>
       <c r="AN83" s="17">
-        <v>25228</v>
+        <v>17688</v>
       </c>
       <c r="AO83" s="17">
-        <v>6712</v>
+        <v>42178</v>
       </c>
       <c r="AP83" s="17">
-        <v>17688</v>
+        <v>40330</v>
       </c>
       <c r="AQ83" s="17">
-        <v>42178</v>
+        <v>0</v>
       </c>
       <c r="AR83" s="17">
-        <v>40330</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AT83" s="17">
-        <v>0</v>
+        <v>32323</v>
       </c>
       <c r="AU83" s="17">
-        <v>1500</v>
+        <v>71050</v>
       </c>
       <c r="AV83" s="17">
-        <v>32323</v>
+        <v>139562</v>
       </c>
       <c r="AW83" s="17">
-        <v>71050</v>
+        <v>0</v>
       </c>
       <c r="AX83" s="17">
-        <v>139562</v>
+        <v>10417</v>
       </c>
       <c r="AY83" s="17">
-        <v>0</v>
+        <v>10834</v>
       </c>
       <c r="AZ83" s="17">
-        <v>10417</v>
+        <v>22162</v>
       </c>
       <c r="BA83" s="17">
-        <v>10834</v>
+        <v>55550</v>
       </c>
       <c r="BB83" s="17">
-        <v>22162</v>
+        <v>109315</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
         <v>90</v>
       </c>
@@ -11348,7 +11348,7 @@
       <c r="BA84" s="19"/>
       <c r="BB84" s="19"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>84</v>
       </c>
@@ -11410,11 +11410,11 @@
       <c r="V85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="15" t="s">
-        <v>58</v>
+      <c r="W85" s="15">
+        <v>0</v>
+      </c>
+      <c r="X85" s="15">
+        <v>0</v>
       </c>
       <c r="Y85" s="15">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>91</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>92</v>
       </c>
@@ -11626,11 +11626,11 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>0</v>
+      </c>
+      <c r="X87" s="11">
+        <v>0</v>
       </c>
       <c r="Y87" s="11">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
         <v>77</v>
       </c>
@@ -11784,103 +11784,103 @@
         <v>0</v>
       </c>
       <c r="W88" s="17">
-        <v>0</v>
+        <v>684412</v>
       </c>
       <c r="X88" s="17">
-        <v>0</v>
+        <v>161675</v>
       </c>
       <c r="Y88" s="17">
-        <v>684412</v>
+        <v>85371</v>
       </c>
       <c r="Z88" s="17">
-        <v>161675</v>
+        <v>702083</v>
       </c>
       <c r="AA88" s="17">
-        <v>85371</v>
+        <v>779717</v>
       </c>
       <c r="AB88" s="17">
-        <v>702083</v>
+        <v>789364</v>
       </c>
       <c r="AC88" s="17">
-        <v>779717</v>
+        <v>787559</v>
       </c>
       <c r="AD88" s="17">
-        <v>789364</v>
+        <v>353598</v>
       </c>
       <c r="AE88" s="17">
-        <v>787559</v>
+        <v>24958</v>
       </c>
       <c r="AF88" s="17">
-        <v>353598</v>
+        <v>4055</v>
       </c>
       <c r="AG88" s="17">
-        <v>24958</v>
+        <v>372765</v>
       </c>
       <c r="AH88" s="17">
-        <v>4055</v>
+        <v>459375</v>
       </c>
       <c r="AI88" s="17">
-        <v>372765</v>
+        <v>1203299</v>
       </c>
       <c r="AJ88" s="17">
-        <v>459375</v>
+        <v>464612</v>
       </c>
       <c r="AK88" s="17">
-        <v>1203299</v>
+        <v>1039027</v>
       </c>
       <c r="AL88" s="17">
-        <v>464612</v>
+        <v>1291115</v>
       </c>
       <c r="AM88" s="17">
-        <v>1039027</v>
+        <v>1480908</v>
       </c>
       <c r="AN88" s="17">
-        <v>1291115</v>
+        <v>1783779</v>
       </c>
       <c r="AO88" s="17">
-        <v>1480908</v>
+        <v>2166305</v>
       </c>
       <c r="AP88" s="17">
-        <v>1783779</v>
+        <v>360039</v>
       </c>
       <c r="AQ88" s="17">
-        <v>2166305</v>
+        <v>120055</v>
       </c>
       <c r="AR88" s="17">
-        <v>382526</v>
+        <v>16251</v>
       </c>
       <c r="AS88" s="17">
-        <v>120055</v>
+        <v>38506</v>
       </c>
       <c r="AT88" s="17">
-        <v>16251</v>
+        <v>1286326</v>
       </c>
       <c r="AU88" s="17">
-        <v>38506</v>
+        <v>940055</v>
       </c>
       <c r="AV88" s="17">
-        <v>1286326</v>
+        <v>828235</v>
       </c>
       <c r="AW88" s="17">
-        <v>940055</v>
+        <v>440589</v>
       </c>
       <c r="AX88" s="17">
-        <v>860515</v>
+        <v>2118861</v>
       </c>
       <c r="AY88" s="17">
-        <v>440589</v>
+        <v>1913408</v>
       </c>
       <c r="AZ88" s="17">
-        <v>2118861</v>
+        <v>1491774</v>
       </c>
       <c r="BA88" s="17">
-        <v>1913408</v>
+        <v>2684622</v>
       </c>
       <c r="BB88" s="17">
-        <v>1491774</v>
+        <v>2290938</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11935,7 +11935,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11990,7 +11990,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12045,7 +12045,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>93</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12257,7 +12257,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>94</v>
       </c>
@@ -12314,7 +12314,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>56</v>
       </c>
@@ -12406,50 +12406,50 @@
       <c r="AF95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH95" s="11" t="s">
-        <v>58</v>
+      <c r="AG95" s="11">
+        <v>4254344</v>
+      </c>
+      <c r="AH95" s="11">
+        <v>7840659</v>
       </c>
       <c r="AI95" s="11">
-        <v>4254344</v>
+        <v>6642940</v>
       </c>
       <c r="AJ95" s="11">
-        <v>7840659</v>
+        <v>4247634</v>
       </c>
       <c r="AK95" s="11">
-        <v>6642940</v>
+        <v>7370370</v>
       </c>
       <c r="AL95" s="11">
-        <v>4247634</v>
+        <v>6959821</v>
       </c>
       <c r="AM95" s="11">
-        <v>7370370</v>
+        <v>7687788</v>
       </c>
       <c r="AN95" s="11">
-        <v>6959821</v>
+        <v>8252687</v>
       </c>
       <c r="AO95" s="11">
-        <v>7687788</v>
+        <v>8941230</v>
       </c>
       <c r="AP95" s="11">
-        <v>8252687</v>
-      </c>
-      <c r="AQ95" s="11">
-        <v>8941230</v>
+        <v>10232323</v>
+      </c>
+      <c r="AQ95" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS95" s="11" t="s">
-        <v>58</v>
+      <c r="AS95" s="11">
+        <v>10600000</v>
       </c>
       <c r="AT95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU95" s="11">
-        <v>10600000</v>
+      <c r="AU95" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV95" s="11" t="s">
         <v>58</v>
@@ -12473,7 +12473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>59</v>
       </c>
@@ -12535,104 +12535,104 @@
       <c r="V96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="13" t="s">
-        <v>58</v>
+      <c r="W96" s="13">
+        <v>28207632</v>
+      </c>
+      <c r="X96" s="13">
+        <v>28022019</v>
       </c>
       <c r="Y96" s="13">
-        <v>28207632</v>
+        <v>27997780</v>
       </c>
       <c r="Z96" s="13">
-        <v>28022019</v>
+        <v>27472718</v>
       </c>
       <c r="AA96" s="13">
-        <v>27997780</v>
+        <v>29467150</v>
       </c>
       <c r="AB96" s="13">
-        <v>27472718</v>
+        <v>30418862</v>
       </c>
       <c r="AC96" s="13">
-        <v>29467150</v>
+        <v>30361762</v>
       </c>
       <c r="AD96" s="13">
-        <v>30418862</v>
+        <v>30698413</v>
       </c>
       <c r="AE96" s="13">
-        <v>30361762</v>
+        <v>33600000</v>
       </c>
       <c r="AF96" s="13">
-        <v>30698413</v>
+        <v>39500000</v>
       </c>
       <c r="AG96" s="13">
-        <v>33600000</v>
+        <v>45150538</v>
       </c>
       <c r="AH96" s="13">
-        <v>39500000</v>
+        <v>48160594</v>
       </c>
       <c r="AI96" s="13">
-        <v>45150538</v>
+        <v>46810217</v>
       </c>
       <c r="AJ96" s="13">
-        <v>48160594</v>
+        <v>46508227</v>
       </c>
       <c r="AK96" s="13">
-        <v>46810217</v>
+        <v>46639752</v>
       </c>
       <c r="AL96" s="13">
-        <v>46508227</v>
+        <v>51970921</v>
       </c>
       <c r="AM96" s="13">
-        <v>46639752</v>
+        <v>52018796</v>
       </c>
       <c r="AN96" s="13">
-        <v>51970921</v>
+        <v>52010134</v>
       </c>
       <c r="AO96" s="13">
-        <v>52018796</v>
+        <v>52012369</v>
       </c>
       <c r="AP96" s="13">
-        <v>52010134</v>
+        <v>52006581</v>
       </c>
       <c r="AQ96" s="13">
-        <v>52012369</v>
+        <v>52245211</v>
       </c>
       <c r="AR96" s="13">
-        <v>52006581</v>
+        <v>52000000</v>
       </c>
       <c r="AS96" s="13">
-        <v>52245211</v>
+        <v>73953846</v>
       </c>
       <c r="AT96" s="13">
-        <v>52000000</v>
+        <v>81942119</v>
       </c>
       <c r="AU96" s="13">
-        <v>73953846</v>
+        <v>82992917</v>
       </c>
       <c r="AV96" s="13">
-        <v>81942119</v>
-      </c>
-      <c r="AW96" s="13">
-        <v>82992917</v>
+        <v>83033033</v>
+      </c>
+      <c r="AW96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX96" s="13">
-        <v>83033033</v>
-      </c>
-      <c r="AY96" s="13" t="s">
-        <v>58</v>
+        <v>85020359</v>
+      </c>
+      <c r="AY96" s="13">
+        <v>84987175</v>
       </c>
       <c r="AZ96" s="13">
-        <v>85020359</v>
+        <v>85000726</v>
       </c>
       <c r="BA96" s="13">
-        <v>84987175</v>
+        <v>85064815</v>
       </c>
       <c r="BB96" s="13">
-        <v>85000726</v>
+        <v>84918743</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>60</v>
       </c>
@@ -12694,104 +12694,104 @@
       <c r="V97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>58</v>
+      <c r="W97" s="11">
+        <v>25901961</v>
+      </c>
+      <c r="X97" s="11">
+        <v>26006731</v>
       </c>
       <c r="Y97" s="11">
-        <v>25901961</v>
+        <v>26095455</v>
       </c>
       <c r="Z97" s="11">
-        <v>26006731</v>
+        <v>26774052</v>
       </c>
       <c r="AA97" s="11">
-        <v>26095455</v>
+        <v>27004067</v>
       </c>
       <c r="AB97" s="11">
-        <v>26774052</v>
+        <v>28300308</v>
       </c>
       <c r="AC97" s="11">
-        <v>27004067</v>
+        <v>30985383</v>
       </c>
       <c r="AD97" s="11">
-        <v>28300308</v>
+        <v>31246154</v>
       </c>
       <c r="AE97" s="11">
-        <v>30985383</v>
+        <v>32367378</v>
       </c>
       <c r="AF97" s="11">
-        <v>31246154</v>
+        <v>32880952</v>
       </c>
       <c r="AG97" s="11">
-        <v>32367378</v>
+        <v>38453757</v>
       </c>
       <c r="AH97" s="11">
-        <v>32880952</v>
+        <v>39186297</v>
       </c>
       <c r="AI97" s="11">
-        <v>38453757</v>
+        <v>35397709</v>
       </c>
       <c r="AJ97" s="11">
-        <v>39186297</v>
+        <v>34726511</v>
       </c>
       <c r="AK97" s="11">
-        <v>35397709</v>
+        <v>35663410</v>
       </c>
       <c r="AL97" s="11">
-        <v>34726511</v>
+        <v>35117514</v>
       </c>
       <c r="AM97" s="11">
-        <v>35663410</v>
+        <v>33269545</v>
       </c>
       <c r="AN97" s="11">
-        <v>35117514</v>
+        <v>32018668</v>
       </c>
       <c r="AO97" s="11">
-        <v>33269545</v>
+        <v>32963529</v>
       </c>
       <c r="AP97" s="11">
-        <v>32018668</v>
+        <v>36948255</v>
       </c>
       <c r="AQ97" s="11">
-        <v>32963529</v>
+        <v>39718101</v>
       </c>
       <c r="AR97" s="11">
-        <v>36948255</v>
+        <v>49829721</v>
       </c>
       <c r="AS97" s="11">
-        <v>39718101</v>
+        <v>53071429</v>
       </c>
       <c r="AT97" s="11">
-        <v>49829721</v>
+        <v>55007299</v>
       </c>
       <c r="AU97" s="11">
-        <v>53071429</v>
+        <v>55074094</v>
       </c>
       <c r="AV97" s="11">
-        <v>55007299</v>
+        <v>55111406</v>
       </c>
       <c r="AW97" s="11">
-        <v>55074094</v>
+        <v>55763198</v>
       </c>
       <c r="AX97" s="11">
-        <v>55111406</v>
+        <v>56372802</v>
       </c>
       <c r="AY97" s="11">
-        <v>55763198</v>
+        <v>56217344</v>
       </c>
       <c r="AZ97" s="11">
-        <v>56372802</v>
+        <v>56197270</v>
       </c>
       <c r="BA97" s="11">
-        <v>56217344</v>
+        <v>55980578</v>
       </c>
       <c r="BB97" s="11">
-        <v>56197270</v>
+        <v>56098376</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>61</v>
       </c>
@@ -12874,14 +12874,14 @@
       <c r="AC98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD98" s="13" t="s">
-        <v>58</v>
+      <c r="AD98" s="13">
+        <v>40452381</v>
       </c>
       <c r="AE98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF98" s="13">
-        <v>40452381</v>
+      <c r="AF98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG98" s="13" t="s">
         <v>58</v>
@@ -12913,29 +12913,29 @@
       <c r="AP98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ98" s="13" t="s">
-        <v>58</v>
+      <c r="AQ98" s="13">
+        <v>126111111</v>
       </c>
       <c r="AR98" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS98" s="13">
-        <v>126111111</v>
+        <v>70000000</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU98" s="13">
-        <v>70000000</v>
+      <c r="AU98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX98" s="13">
-        <v>0</v>
+      <c r="AW98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY98" s="13" t="s">
         <v>58</v>
@@ -12950,7 +12950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>62</v>
       </c>
@@ -13012,104 +13012,104 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
+      <c r="W99" s="11">
+        <v>64086276</v>
+      </c>
+      <c r="X99" s="11">
+        <v>62955814</v>
       </c>
       <c r="Y99" s="11">
-        <v>64086276</v>
+        <v>62014019</v>
       </c>
       <c r="Z99" s="11">
-        <v>62955814</v>
+        <v>64054759</v>
       </c>
       <c r="AA99" s="11">
-        <v>62014019</v>
+        <v>64486609</v>
       </c>
       <c r="AB99" s="11">
-        <v>64054759</v>
+        <v>67157975</v>
       </c>
       <c r="AC99" s="11">
-        <v>64486609</v>
+        <v>64980698</v>
       </c>
       <c r="AD99" s="11">
-        <v>67157975</v>
+        <v>62861421</v>
       </c>
       <c r="AE99" s="11">
-        <v>64980698</v>
+        <v>7484444</v>
       </c>
       <c r="AF99" s="11">
-        <v>62861421</v>
+        <v>68058824</v>
       </c>
       <c r="AG99" s="11">
-        <v>7484444</v>
+        <v>68095696</v>
       </c>
       <c r="AH99" s="11">
-        <v>68058824</v>
+        <v>114506843</v>
       </c>
       <c r="AI99" s="11">
-        <v>68095696</v>
+        <v>120985594</v>
       </c>
       <c r="AJ99" s="11">
-        <v>114506843</v>
+        <v>121908477</v>
       </c>
       <c r="AK99" s="11">
-        <v>120985594</v>
+        <v>125005629</v>
       </c>
       <c r="AL99" s="11">
-        <v>121908477</v>
+        <v>125549205</v>
       </c>
       <c r="AM99" s="11">
-        <v>125005629</v>
+        <v>125818969</v>
       </c>
       <c r="AN99" s="11">
-        <v>125549205</v>
+        <v>127503996</v>
       </c>
       <c r="AO99" s="11">
-        <v>125818969</v>
+        <v>127133306</v>
       </c>
       <c r="AP99" s="11">
-        <v>127503996</v>
+        <v>129634197</v>
       </c>
       <c r="AQ99" s="11">
-        <v>127133306</v>
-      </c>
-      <c r="AR99" s="11">
-        <v>129977598</v>
+        <v>130313492</v>
+      </c>
+      <c r="AR99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS99" s="11">
-        <v>130313492</v>
-      </c>
-      <c r="AT99" s="11" t="s">
-        <v>58</v>
+        <v>129782609</v>
+      </c>
+      <c r="AT99" s="11">
+        <v>179989822</v>
       </c>
       <c r="AU99" s="11">
-        <v>129782609</v>
+        <v>180037374</v>
       </c>
       <c r="AV99" s="11">
-        <v>179989822</v>
+        <v>179967273</v>
       </c>
       <c r="AW99" s="11">
-        <v>180037374</v>
+        <v>179677761</v>
       </c>
       <c r="AX99" s="11">
-        <v>182807822</v>
+        <v>177110606</v>
       </c>
       <c r="AY99" s="11">
-        <v>179677761</v>
+        <v>176667642</v>
       </c>
       <c r="AZ99" s="11">
-        <v>177110606</v>
+        <v>177927077</v>
       </c>
       <c r="BA99" s="11">
-        <v>176667642</v>
+        <v>177390200</v>
       </c>
       <c r="BB99" s="11">
-        <v>177927077</v>
+        <v>179995224</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>63</v>
       </c>
@@ -13186,14 +13186,14 @@
       <c r="AA100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB100" s="13" t="s">
-        <v>58</v>
+      <c r="AB100" s="13">
+        <v>42000000</v>
       </c>
       <c r="AC100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD100" s="13">
-        <v>42000000</v>
+      <c r="AD100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE100" s="13" t="s">
         <v>58</v>
@@ -13264,11 +13264,11 @@
       <c r="BA100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB100" s="13" t="s">
-        <v>58</v>
+      <c r="BB100" s="13">
+        <v>214347518</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>67</v>
       </c>
@@ -13330,104 +13330,104 @@
       <c r="V101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>58</v>
+      <c r="W101" s="11">
+        <v>1179487</v>
+      </c>
+      <c r="X101" s="11">
+        <v>1001618</v>
       </c>
       <c r="Y101" s="11">
-        <v>1179487</v>
+        <v>1000000</v>
       </c>
       <c r="Z101" s="11">
-        <v>1001618</v>
+        <v>1001835</v>
       </c>
       <c r="AA101" s="11">
+        <v>1006024</v>
+      </c>
+      <c r="AB101" s="11">
+        <v>1173684</v>
+      </c>
+      <c r="AC101" s="11">
+        <v>1197201</v>
+      </c>
+      <c r="AD101" s="11">
+        <v>1199490</v>
+      </c>
+      <c r="AE101" s="11">
+        <v>1199859</v>
+      </c>
+      <c r="AF101" s="11">
+        <v>1200000</v>
+      </c>
+      <c r="AG101" s="11">
+        <v>1195122</v>
+      </c>
+      <c r="AH101" s="11">
+        <v>6383838</v>
+      </c>
+      <c r="AI101" s="11">
+        <v>6922719</v>
+      </c>
+      <c r="AJ101" s="11">
+        <v>7001133</v>
+      </c>
+      <c r="AK101" s="11">
+        <v>6868499</v>
+      </c>
+      <c r="AL101" s="11">
         <v>1000000</v>
       </c>
-      <c r="AB101" s="11">
-        <v>1001835</v>
-      </c>
-      <c r="AC101" s="11">
-        <v>1006024</v>
-      </c>
-      <c r="AD101" s="11">
-        <v>1173684</v>
-      </c>
-      <c r="AE101" s="11">
-        <v>1197201</v>
-      </c>
-      <c r="AF101" s="11">
-        <v>1199490</v>
-      </c>
-      <c r="AG101" s="11">
-        <v>1199859</v>
-      </c>
-      <c r="AH101" s="11">
-        <v>1200000</v>
-      </c>
-      <c r="AI101" s="11">
-        <v>1195122</v>
-      </c>
-      <c r="AJ101" s="11">
-        <v>6383838</v>
-      </c>
-      <c r="AK101" s="11">
-        <v>6922719</v>
-      </c>
-      <c r="AL101" s="11">
-        <v>7001133</v>
-      </c>
-      <c r="AM101" s="11">
-        <v>6868499</v>
+      <c r="AM101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN101" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="AO101" s="11" t="s">
-        <v>58</v>
+        <v>7058824</v>
+      </c>
+      <c r="AO101" s="11">
+        <v>6994286</v>
       </c>
       <c r="AP101" s="11">
-        <v>7058824</v>
+        <v>7002746</v>
       </c>
       <c r="AQ101" s="11">
-        <v>6994286</v>
-      </c>
-      <c r="AR101" s="11">
-        <v>7002746</v>
+        <v>6999301</v>
+      </c>
+      <c r="AR101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS101" s="11">
-        <v>6999301</v>
-      </c>
-      <c r="AT101" s="11" t="s">
-        <v>58</v>
+        <v>2000000</v>
+      </c>
+      <c r="AT101" s="11">
+        <v>8000000</v>
       </c>
       <c r="AU101" s="11">
-        <v>2000000</v>
+        <v>7996779</v>
       </c>
       <c r="AV101" s="11">
         <v>8000000</v>
       </c>
       <c r="AW101" s="11">
-        <v>7996779</v>
-      </c>
-      <c r="AX101" s="11">
-        <v>8000000</v>
-      </c>
-      <c r="AY101" s="11">
         <v>7995363</v>
       </c>
+      <c r="AX101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ101" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BA101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB101" s="11" t="s">
-        <v>58</v>
+      <c r="BB101" s="11">
+        <v>8000832</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>69</v>
       </c>
@@ -13516,44 +13516,44 @@
       <c r="AE102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG102" s="13" t="s">
-        <v>58</v>
+      <c r="AF102" s="13">
+        <v>7666667</v>
+      </c>
+      <c r="AG102" s="13">
+        <v>7562500</v>
       </c>
       <c r="AH102" s="13">
+        <v>6750000</v>
+      </c>
+      <c r="AI102" s="13">
+        <v>19785276</v>
+      </c>
+      <c r="AJ102" s="13">
+        <v>8666667</v>
+      </c>
+      <c r="AK102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL102" s="13">
         <v>7666667</v>
       </c>
-      <c r="AI102" s="13">
-        <v>7562500</v>
-      </c>
-      <c r="AJ102" s="13">
-        <v>6750000</v>
-      </c>
-      <c r="AK102" s="13">
-        <v>19785276</v>
-      </c>
-      <c r="AL102" s="13">
-        <v>8666667</v>
-      </c>
       <c r="AM102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AN102" s="13">
-        <v>7666667</v>
-      </c>
-      <c r="AO102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP102" s="13">
         <v>19680261</v>
       </c>
-      <c r="AQ102" s="13">
+      <c r="AO102" s="13">
         <v>20000000</v>
       </c>
-      <c r="AR102" s="13">
-        <v>0</v>
+      <c r="AP102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS102" s="13" t="s">
         <v>58</v>
@@ -13564,29 +13564,29 @@
       <c r="AU102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV102" s="13" t="s">
-        <v>58</v>
+      <c r="AV102" s="13">
+        <v>4031572</v>
       </c>
       <c r="AW102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX102" s="13">
-        <v>22031690</v>
+      <c r="AX102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ102" s="13" t="s">
-        <v>58</v>
+      <c r="AZ102" s="13">
+        <v>22000000</v>
       </c>
       <c r="BA102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="BB102" s="13">
-        <v>22000000</v>
+        <v>21971061</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>96</v>
       </c>
@@ -13643,7 +13643,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>75</v>
       </c>
@@ -13705,101 +13705,101 @@
       <c r="V104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="11" t="s">
-        <v>58</v>
+      <c r="W104" s="11">
+        <v>2656551</v>
+      </c>
+      <c r="X104" s="11">
+        <v>0</v>
       </c>
       <c r="Y104" s="11">
-        <v>2656551</v>
+        <v>2169900</v>
       </c>
       <c r="Z104" s="11">
-        <v>0</v>
+        <v>2170012</v>
       </c>
       <c r="AA104" s="11">
-        <v>2169900</v>
+        <v>2170394</v>
       </c>
       <c r="AB104" s="11">
-        <v>2170012</v>
+        <v>2170505</v>
       </c>
       <c r="AC104" s="11">
-        <v>2170394</v>
+        <v>2169953</v>
       </c>
       <c r="AD104" s="11">
-        <v>2170505</v>
+        <v>2170123</v>
       </c>
       <c r="AE104" s="11">
-        <v>2169953</v>
+        <v>0</v>
       </c>
       <c r="AF104" s="11">
-        <v>2170123</v>
+        <v>0</v>
       </c>
       <c r="AG104" s="11">
-        <v>0</v>
+        <v>3302731</v>
       </c>
       <c r="AH104" s="11">
-        <v>0</v>
+        <v>3956550</v>
       </c>
       <c r="AI104" s="11">
-        <v>3302731</v>
+        <v>3992195</v>
       </c>
       <c r="AJ104" s="11">
-        <v>3956550</v>
+        <v>3626400</v>
       </c>
       <c r="AK104" s="11">
-        <v>3992195</v>
+        <v>3549704</v>
       </c>
       <c r="AL104" s="11">
-        <v>3626400</v>
+        <v>4000000</v>
       </c>
       <c r="AM104" s="11">
-        <v>3549704</v>
+        <v>4000000</v>
       </c>
       <c r="AN104" s="11">
         <v>4000000</v>
       </c>
       <c r="AO104" s="11">
-        <v>4000000</v>
+        <v>4002467</v>
       </c>
       <c r="AP104" s="11">
-        <v>4000000</v>
+        <v>4000198</v>
       </c>
       <c r="AQ104" s="11">
-        <v>4002467</v>
-      </c>
-      <c r="AR104" s="11">
-        <v>4000198</v>
+        <v>0</v>
+      </c>
+      <c r="AR104" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS104" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT104" s="11" t="s">
-        <v>58</v>
+        <v>6521739</v>
+      </c>
+      <c r="AT104" s="11">
+        <v>6162631</v>
       </c>
       <c r="AU104" s="11">
-        <v>6521739</v>
+        <v>6194960</v>
       </c>
       <c r="AV104" s="11">
-        <v>6162631</v>
+        <v>7643463</v>
       </c>
       <c r="AW104" s="11">
-        <v>6194960</v>
+        <v>0</v>
       </c>
       <c r="AX104" s="11">
-        <v>7643463</v>
+        <v>8300398</v>
       </c>
       <c r="AY104" s="11">
-        <v>0</v>
+        <v>8073025</v>
       </c>
       <c r="AZ104" s="11">
-        <v>8300398</v>
+        <v>8375661</v>
       </c>
       <c r="BA104" s="11">
-        <v>8073025</v>
+        <v>8101210</v>
       </c>
       <c r="BB104" s="11">
-        <v>8375661</v>
+        <v>7562435</v>
       </c>
     </row>
   </sheetData>
